--- a/data/xls/chronicPlasm.xlsx
+++ b/data/xls/chronicPlasm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANTOCIANOS" sheetId="3" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -26701,9 +26701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P278" sqref="P278"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26712,9 +26712,9 @@
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26786,11 +26786,17 @@
         <f t="shared" ref="F3" si="0">(C3+149.43)/300794/2*288.25</f>
         <v>0.15760632276574668</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20">
+        <f>SUM(E3:F3)</f>
+        <v>0.66570978809417747</v>
+      </c>
       <c r="H3">
         <v>3569.06</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <f>(H3+149.43)/300794/2*288.25</f>
+        <v>1.7817089810634521</v>
+      </c>
       <c r="J3">
         <v>2881.04</v>
       </c>
@@ -26817,15 +26823,22 @@
         <f t="shared" ref="F4:F67" si="2">(C4+149.43)/300794/2*288.25</f>
         <v>0.1968629610298078</v>
       </c>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G44" si="3">SUM(E4:F4)</f>
+        <v>0.47762961944054738</v>
+      </c>
       <c r="H4">
         <v>159.82</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:I44" si="4">(H4+149.43)/300794/2*288.25</f>
+        <v>0.14817667988723179</v>
+      </c>
       <c r="J4">
         <v>925.6</v>
       </c>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:K67" si="3">(J4-63.701)/2108.2/2*272.2</f>
+        <f t="shared" ref="K4:K67" si="5">(J4-63.701)/2108.2/2*272.2</f>
         <v>55.641995019447876</v>
       </c>
     </row>
@@ -26847,15 +26860,22 @@
         <f t="shared" si="2"/>
         <v>0.24363264809138482</v>
       </c>
+      <c r="G5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.66671599998670183</v>
+      </c>
       <c r="H5">
         <v>428.06</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27670347895902181</v>
+      </c>
       <c r="J5">
         <v>913.15</v>
       </c>
       <c r="K5" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54.838254861967556</v>
       </c>
     </row>
@@ -26871,15 +26891,22 @@
         <v>0.16094119646668484</v>
       </c>
       <c r="F6" s="20"/>
+      <c r="G6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.16094119646668484</v>
+      </c>
       <c r="H6">
         <v>231.42</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <f t="shared" si="4"/>
+        <v>0.18248371393711313</v>
+      </c>
       <c r="J6">
         <v>3641.69</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>230.98581866046865</v>
       </c>
     </row>
@@ -26895,15 +26922,22 @@
         <v>0.3483409742215603</v>
       </c>
       <c r="F7" s="20"/>
+      <c r="G7" s="20">
+        <f t="shared" si="3"/>
+        <v>0.3483409742215603</v>
+      </c>
       <c r="H7">
         <v>265.2</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <f t="shared" si="4"/>
+        <v>0.19866935095114929</v>
+      </c>
       <c r="J7">
         <v>2347.84</v>
       </c>
       <c r="K7" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>147.45817185276539</v>
       </c>
     </row>
@@ -26925,15 +26959,22 @@
         <f t="shared" si="2"/>
         <v>0.18531548169178905</v>
       </c>
+      <c r="G8" s="20">
+        <f t="shared" si="3"/>
+        <v>0.83822242132489344</v>
+      </c>
       <c r="H8">
         <v>425.93</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27568289261088985</v>
+      </c>
       <c r="J8">
         <v>2187.25</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137.09089218290487</v>
       </c>
     </row>
@@ -26955,15 +26996,22 @@
         <f t="shared" si="2"/>
         <v>0.18165957848228356</v>
       </c>
+      <c r="G9" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43237404170295957</v>
+      </c>
       <c r="H9">
         <v>412.43</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f t="shared" si="4"/>
+        <v>0.26921438758751837</v>
+      </c>
       <c r="J9">
         <v>1828.28</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>113.91670709610094</v>
       </c>
     </row>
@@ -26979,15 +27027,22 @@
         <v>0.37925084526287095</v>
       </c>
       <c r="F10" s="20"/>
+      <c r="G10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.37925084526287095</v>
+      </c>
       <c r="H10">
         <v>425.35</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27540498646914496</v>
+      </c>
       <c r="J10">
         <v>1804.89</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.40670851911584</v>
       </c>
     </row>
@@ -27003,15 +27058,22 @@
         <v>0.25045093153453862</v>
       </c>
       <c r="F11" s="20"/>
+      <c r="G11" s="20">
+        <f t="shared" si="3"/>
+        <v>0.25045093153453862</v>
+      </c>
       <c r="H11">
         <v>109.72</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f t="shared" si="4"/>
+        <v>0.12417133902271986</v>
+      </c>
       <c r="J11">
         <v>2324.7600000000002</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>145.96818608291434</v>
       </c>
     </row>
@@ -27027,15 +27089,22 @@
         <v>0.98797070835854428</v>
       </c>
       <c r="F12" s="20"/>
+      <c r="G12" s="20">
+        <f t="shared" si="3"/>
+        <v>0.98797070835854428</v>
+      </c>
       <c r="H12">
         <v>1775.85</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f t="shared" si="4"/>
+        <v>0.92249506306641749</v>
+      </c>
       <c r="J12">
         <v>1117.8599999999999</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68.053808889099699</v>
       </c>
     </row>
@@ -27057,15 +27126,22 @@
         <f t="shared" si="2"/>
         <v>0.24499342988889405</v>
       </c>
+      <c r="G13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.47885144816718417</v>
+      </c>
       <c r="H13">
         <v>1006.32</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f t="shared" si="4"/>
+        <v>0.55377590227863582</v>
+      </c>
       <c r="J13">
         <v>4233.28</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>269.17735599089269</v>
       </c>
     </row>
@@ -27081,15 +27157,22 @@
         <v>0.85933849661229944</v>
       </c>
       <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <f t="shared" si="3"/>
+        <v>0.85933849661229944</v>
+      </c>
       <c r="H14">
         <v>163.30000000000001</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1498441167377009</v>
+      </c>
       <c r="J14">
         <v>1535.66</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.02590831040699</v>
       </c>
     </row>
@@ -27111,15 +27194,22 @@
         <f t="shared" si="2"/>
         <v>0.14503346559439348</v>
       </c>
+      <c r="G15" s="20">
+        <f t="shared" si="3"/>
+        <v>0.67463632502643001</v>
+      </c>
       <c r="H15">
         <v>680.32</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f t="shared" si="4"/>
+        <v>0.39757348467722098</v>
+      </c>
       <c r="J15">
         <v>3855.09</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>244.76237686177785</v>
       </c>
     </row>
@@ -27141,18 +27231,22 @@
         <f t="shared" si="2"/>
         <v>0.28999985039595205</v>
       </c>
+      <c r="G16" s="20">
+        <f t="shared" si="3"/>
+        <v>0.682091876001516</v>
+      </c>
       <c r="H16">
         <v>24345.49</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" ref="I16:I67" si="4">(H16-4195.6)/220309/2*302.28</f>
-        <v>13.823558613583648</v>
+        <f t="shared" si="4"/>
+        <v>11.736704671635739</v>
       </c>
       <c r="J16">
         <v>4104.96</v>
       </c>
       <c r="K16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>260.89334498624419</v>
       </c>
     </row>
@@ -27174,15 +27268,22 @@
         <f t="shared" si="2"/>
         <v>0.25065217391304351</v>
       </c>
+      <c r="G17" s="20">
+        <f t="shared" si="3"/>
+        <v>0.93358255982499661</v>
+      </c>
       <c r="H17">
         <v>2166.15</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f t="shared" si="4"/>
+        <v>1.1095067305198907</v>
+      </c>
       <c r="J17">
         <v>645.04999999999995</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.530404563134425</v>
       </c>
     </row>
@@ -27198,15 +27299,22 @@
         <v>0.24600443326662105</v>
       </c>
       <c r="F18" s="20"/>
+      <c r="G18" s="20">
+        <f t="shared" si="3"/>
+        <v>0.24600443326662105</v>
+      </c>
       <c r="H18">
         <v>672.1</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f t="shared" si="4"/>
+        <v>0.39363488384076806</v>
+      </c>
       <c r="J18">
         <v>1809.33</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.69334356322929</v>
       </c>
     </row>
@@ -27228,15 +27336,22 @@
         <f t="shared" si="2"/>
         <v>0.20951727344960336</v>
       </c>
+      <c r="G19" s="20">
+        <f t="shared" si="3"/>
+        <v>0.38716158733219408</v>
+      </c>
       <c r="H19">
         <v>328.38</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <f t="shared" si="4"/>
+        <v>0.22894195446052781</v>
+      </c>
       <c r="J19">
         <v>2114.9</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>132.42016122758753</v>
       </c>
     </row>
@@ -27252,15 +27367,22 @@
         <f t="shared" si="2"/>
         <v>0.26231944038112465</v>
       </c>
+      <c r="G20" s="20">
+        <f t="shared" si="3"/>
+        <v>0.26231944038112465</v>
+      </c>
       <c r="H20">
         <v>510.86</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21">
+        <f t="shared" si="4"/>
+        <v>0.31637697643570017</v>
+      </c>
       <c r="J20">
         <v>1057.08</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64.130007541978927</v>
       </c>
     </row>
@@ -27276,15 +27398,22 @@
         <f t="shared" si="2"/>
         <v>0.26518954001742057</v>
       </c>
+      <c r="G21" s="20">
+        <f t="shared" si="3"/>
+        <v>0.26518954001742057</v>
+      </c>
       <c r="H21">
         <v>599.04</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <f t="shared" si="4"/>
+        <v>0.3586282929513222</v>
+      </c>
       <c r="J21">
         <v>839.79</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50.102320889858646</v>
       </c>
     </row>
@@ -27306,15 +27435,22 @@
         <f t="shared" si="2"/>
         <v>0.12034294234592446</v>
       </c>
+      <c r="G22" s="20">
+        <f t="shared" si="3"/>
+        <v>0.44900528684082797</v>
+      </c>
       <c r="H22">
         <v>257.76</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="21">
+        <f t="shared" si="4"/>
+        <v>0.19510448596049121</v>
+      </c>
       <c r="J22">
         <v>5372.23</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>342.70505497580871</v>
       </c>
     </row>
@@ -27336,15 +27472,22 @@
         <f t="shared" si="2"/>
         <v>0.11950443243548742</v>
       </c>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>0.47576094021157339</v>
+      </c>
       <c r="H23">
         <v>229.82</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21">
+        <f t="shared" si="4"/>
+        <v>0.18171707630471354</v>
+      </c>
       <c r="J23">
         <v>755.51</v>
       </c>
       <c r="K23" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.661419647092309</v>
       </c>
     </row>
@@ -27366,15 +27509,22 @@
         <f t="shared" si="2"/>
         <v>0.13568527796432112</v>
       </c>
+      <c r="G24" s="20">
+        <f t="shared" si="3"/>
+        <v>0.39472734246693753</v>
+      </c>
       <c r="H24">
         <v>511.19</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="21">
+        <f t="shared" si="4"/>
+        <v>0.31653509544738262</v>
+      </c>
       <c r="J24">
         <v>3489.33</v>
       </c>
       <c r="K24" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>221.14984674129587</v>
       </c>
     </row>
@@ -27396,15 +27546,22 @@
         <f t="shared" si="2"/>
         <v>0.19280457306329249</v>
       </c>
+      <c r="G25" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43748176492882174</v>
+      </c>
       <c r="H25">
         <v>186.75</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="21">
+        <f t="shared" si="4"/>
+        <v>0.16108014953755728</v>
+      </c>
       <c r="J25">
         <v>2245.1999999999998</v>
       </c>
       <c r="K25" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140.83199596812446</v>
       </c>
     </row>
@@ -27420,15 +27577,22 @@
         <v>0.19309206217544234</v>
       </c>
       <c r="F26" s="20"/>
+      <c r="G26" s="20">
+        <f t="shared" si="3"/>
+        <v>0.19309206217544234</v>
+      </c>
       <c r="H26">
         <v>407</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="21">
+        <f t="shared" si="4"/>
+        <v>0.26661261112256229</v>
+      </c>
       <c r="J26">
         <v>1740.55</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>108.25308267716535</v>
       </c>
     </row>
@@ -27450,15 +27614,22 @@
         <f t="shared" si="2"/>
         <v>0.25116007134450824</v>
       </c>
+      <c r="G27" s="20">
+        <f t="shared" si="3"/>
+        <v>0.81890794447362658</v>
+      </c>
       <c r="H27">
         <v>346.5</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23762412564745308</v>
+      </c>
       <c r="J27">
         <v>2625.86</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>165.40643197988808</v>
       </c>
     </row>
@@ -27474,15 +27645,22 @@
         <v>0.37532661888202551</v>
       </c>
       <c r="F28" s="20"/>
+      <c r="G28" s="20">
+        <f t="shared" si="3"/>
+        <v>0.37532661888202551</v>
+      </c>
       <c r="H28">
         <v>67.56</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21">
+        <f t="shared" si="4"/>
+        <v>0.10397043740899088</v>
+      </c>
       <c r="J28">
         <v>1934.51</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120.77464419884261</v>
       </c>
     </row>
@@ -27504,15 +27682,22 @@
         <f t="shared" si="2"/>
         <v>0.28968840385778971</v>
       </c>
+      <c r="G29" s="20">
+        <f t="shared" si="3"/>
+        <v>0.44073997486651995</v>
+      </c>
       <c r="H29">
         <v>258.77</v>
       </c>
-      <c r="I29" s="21"/>
+      <c r="I29" s="21">
+        <f t="shared" si="4"/>
+        <v>0.19558842596594347</v>
+      </c>
       <c r="J29">
         <v>1876.63</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>117.03805943458876</v>
       </c>
     </row>
@@ -27534,15 +27719,22 @@
         <f t="shared" si="2"/>
         <v>0.1325660210974953</v>
       </c>
+      <c r="G30" s="20">
+        <f t="shared" si="3"/>
+        <v>0.37311774420367427</v>
+      </c>
       <c r="H30">
         <v>189.9</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="21">
+        <f t="shared" si="4"/>
+        <v>0.16258946737634397</v>
+      </c>
       <c r="J30">
         <v>624.91</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.230217673844983</v>
       </c>
     </row>
@@ -27564,15 +27756,22 @@
         <f t="shared" si="2"/>
         <v>0.29726374196293814</v>
       </c>
+      <c r="G31" s="20">
+        <f t="shared" si="3"/>
+        <v>0.88336779490282391</v>
+      </c>
       <c r="H31">
         <v>721.14</v>
       </c>
-      <c r="I31" s="21"/>
+      <c r="I31" s="21">
+        <f t="shared" si="4"/>
+        <v>0.41713232727381527</v>
+      </c>
       <c r="J31">
         <v>3580.96</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>227.0652451854663</v>
       </c>
     </row>
@@ -27588,15 +27787,22 @@
         <v>0.28317198398239324</v>
       </c>
       <c r="F32" s="20"/>
+      <c r="G32" s="20">
+        <f t="shared" si="3"/>
+        <v>0.28317198398239324</v>
+      </c>
       <c r="H32">
         <v>461.58</v>
       </c>
-      <c r="I32" s="21"/>
+      <c r="I32" s="21">
+        <f t="shared" si="4"/>
+        <v>0.29276453735779301</v>
+      </c>
       <c r="J32">
         <v>891.19</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53.420573427568549</v>
       </c>
     </row>
@@ -27612,15 +27818,22 @@
         <v>0.23090167190834923</v>
       </c>
       <c r="F33" s="20"/>
+      <c r="G33" s="20">
+        <f t="shared" si="3"/>
+        <v>0.23090167190834923</v>
+      </c>
       <c r="H33">
         <v>1079.1300000000001</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="21">
+        <f t="shared" si="4"/>
+        <v>0.5886627060380194</v>
+      </c>
       <c r="J33">
         <v>753.02</v>
       </c>
       <c r="K33" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.500671615596239</v>
       </c>
     </row>
@@ -27642,15 +27855,22 @@
         <f t="shared" si="2"/>
         <v>0.13813851838799976</v>
       </c>
+      <c r="G34" s="20">
+        <f t="shared" si="3"/>
+        <v>0.49133805860489244</v>
+      </c>
       <c r="H34">
         <v>442.5</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="21">
+        <f t="shared" si="4"/>
+        <v>0.28362238359142811</v>
+      </c>
       <c r="J34">
         <v>3364.86</v>
       </c>
       <c r="K34" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>213.11438188976379</v>
       </c>
     </row>
@@ -27672,15 +27892,22 @@
         <f t="shared" si="2"/>
         <v>0.14863666246667157</v>
       </c>
+      <c r="G35" s="20">
+        <f t="shared" si="3"/>
+        <v>0.2782319627386185</v>
+      </c>
       <c r="H35">
         <v>926.93</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="21">
+        <f t="shared" si="4"/>
+        <v>0.515736301256009</v>
+      </c>
       <c r="J35">
         <v>2025.86</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>126.67196655914998</v>
       </c>
     </row>
@@ -27702,18 +27929,22 @@
         <f t="shared" si="2"/>
         <v>0.16407961927432063</v>
       </c>
+      <c r="G36" s="20">
+        <f t="shared" si="3"/>
+        <v>0.49352776734243364</v>
+      </c>
       <c r="H36">
         <v>5755.9</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="4"/>
-        <v>1.0704226427426926</v>
+        <v>2.8295301310863912</v>
       </c>
       <c r="J36">
         <v>807.54</v>
       </c>
       <c r="K36" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48.020343373493972</v>
       </c>
     </row>
@@ -27735,15 +27966,22 @@
         <f t="shared" si="2"/>
         <v>0.17523898831093707</v>
       </c>
+      <c r="G37" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52548697364309127</v>
+      </c>
       <c r="H37">
         <v>318.14</v>
       </c>
-      <c r="I37" s="21"/>
+      <c r="I37" s="21">
+        <f t="shared" si="4"/>
+        <v>0.22403547361317047</v>
+      </c>
       <c r="J37">
         <v>1000.74</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.492841238971636</v>
       </c>
     </row>
@@ -27759,15 +27997,22 @@
         <v>0.17234013976342613</v>
       </c>
       <c r="F38" s="20"/>
+      <c r="G38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.17234013976342613</v>
+      </c>
       <c r="H38">
         <v>278</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="21">
+        <f t="shared" si="4"/>
+        <v>0.20480245201034597</v>
+      </c>
       <c r="J38">
         <v>3283.2</v>
       </c>
       <c r="K38" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>207.84262114600133</v>
       </c>
     </row>
@@ -27789,15 +28034,22 @@
         <f t="shared" si="2"/>
         <v>0.19215293107575282</v>
       </c>
+      <c r="G39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.47038968529957381</v>
+      </c>
       <c r="H39">
         <v>322.89</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="21">
+        <f t="shared" si="4"/>
+        <v>0.22631142908435672</v>
+      </c>
       <c r="J39">
         <v>3235.18</v>
       </c>
       <c r="K39" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204.74257276349493</v>
       </c>
     </row>
@@ -27819,15 +28071,22 @@
         <f t="shared" si="2"/>
         <v>0.13721855322912027</v>
       </c>
+      <c r="G40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.40974385709156436</v>
+      </c>
       <c r="H40">
         <v>151.97</v>
       </c>
-      <c r="I40" s="21"/>
+      <c r="I40" s="21">
+        <f t="shared" si="4"/>
+        <v>0.14441536400327132</v>
+      </c>
       <c r="J40">
         <v>1170.6300000000001</v>
       </c>
       <c r="K40" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71.460505122853618</v>
       </c>
     </row>
@@ -27849,15 +28108,22 @@
         <f t="shared" si="2"/>
         <v>0.12013690848221707</v>
       </c>
+      <c r="G41" s="20">
+        <f t="shared" si="3"/>
+        <v>0.62926575164398224</v>
+      </c>
       <c r="H41">
         <v>345.13</v>
       </c>
-      <c r="I41" s="21"/>
+      <c r="I41" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23696769217471092</v>
+      </c>
       <c r="J41">
         <v>1307.79</v>
       </c>
       <c r="K41" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80.315203918034342</v>
       </c>
     </row>
@@ -27873,15 +28139,22 @@
         <v>0.20895187819570871</v>
       </c>
       <c r="F42" s="20"/>
+      <c r="G42" s="20">
+        <f t="shared" si="3"/>
+        <v>0.20895187819570871</v>
+      </c>
       <c r="H42">
         <v>294.98</v>
       </c>
-      <c r="I42" s="21"/>
+      <c r="I42" s="21">
+        <f t="shared" si="4"/>
+        <v>0.21293839388418653</v>
+      </c>
       <c r="J42">
         <v>888.53</v>
       </c>
       <c r="K42" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53.248850630869939</v>
       </c>
     </row>
@@ -27903,15 +28176,22 @@
         <f t="shared" si="2"/>
         <v>0.16295362025173377</v>
       </c>
+      <c r="G43" s="20">
+        <f t="shared" si="3"/>
+        <v>0.32566287475814015</v>
+      </c>
       <c r="H43">
         <v>254.79</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="21">
+        <f t="shared" si="4"/>
+        <v>0.19368141485534951</v>
+      </c>
       <c r="J43">
         <v>1054.02</v>
       </c>
       <c r="K43" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63.93246176833317</v>
       </c>
     </row>
@@ -27933,15 +28213,22 @@
         <f t="shared" si="2"/>
         <v>0.22588498690133446</v>
       </c>
+      <c r="G44" s="20">
+        <f t="shared" si="3"/>
+        <v>0.72273804497430139</v>
+      </c>
       <c r="H44">
         <v>392.53</v>
       </c>
-      <c r="I44" s="21"/>
+      <c r="I44" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25967933203454857</v>
+      </c>
       <c r="J44">
         <v>1780.21</v>
       </c>
       <c r="K44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>110.81343084147615</v>
       </c>
     </row>
@@ -27986,43 +28273,43 @@
         <v>49</v>
       </c>
       <c r="B49" s="5">
-        <f t="shared" ref="B49:K49" si="5">AVERAGE(B3:B48)</f>
+        <f t="shared" ref="B49:K49" si="6">AVERAGE(B3:B48)</f>
         <v>604.18925000000013</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>256.19172413793103</v>
       </c>
       <c r="D49" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36109554846921815</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19435304890183749</v>
       </c>
-      <c r="G49" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="G49" s="5">
+        <f t="shared" si="6"/>
+        <v>0.47809667516480986</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1249.4204761904762</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="5"/>
-        <v>7.4469906281631708</v>
+        <f t="shared" si="6"/>
+        <v>0.67025713571730938</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2047.0466666666671</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.03972357145113</v>
       </c>
     </row>
@@ -28031,43 +28318,43 @@
         <v>50</v>
       </c>
       <c r="B50" s="5">
-        <f t="shared" ref="B50:K50" si="6">STDEV(B3:B48)</f>
+        <f t="shared" ref="B50:K50" si="7">STDEV(B3:B48)</f>
         <v>403.21489606938331</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118.15763067278759</v>
       </c>
       <c r="D50" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19319982079429726</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.6615053893081517E-2</v>
       </c>
-      <c r="G50" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G50" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22311442289567521</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3789.9230720180062</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="6"/>
-        <v>9.0178289263757225</v>
+        <f t="shared" si="7"/>
+        <v>1.8159360318177726</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1186.008224630443</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76.565657609431454</v>
       </c>
     </row>
@@ -28080,39 +28367,39 @@
         <v>66.736522715255731</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" ref="C51:K51" si="7">+C50*100/C49</f>
+        <f t="shared" ref="C51:K51" si="8">+C50*100/C49</f>
         <v>46.120783592983166</v>
       </c>
       <c r="D51" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.50379466413353</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.130005530129996</v>
       </c>
-      <c r="G51" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="G51" s="8">
+        <f t="shared" si="8"/>
+        <v>46.667219097217739</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>303.33447740296413</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="7"/>
-        <v>121.0935984298399</v>
+        <f t="shared" si="8"/>
+        <v>270.93124937407157</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.937527460558272</v>
       </c>
       <c r="K51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59.798362159619039</v>
       </c>
     </row>
@@ -28143,12 +28430,15 @@
       <c r="H53">
         <v>499.44</v>
       </c>
-      <c r="I53" s="21"/>
+      <c r="I53" s="21">
+        <f>(H53+149.43)/300794/2*288.25</f>
+        <v>0.31090510033444818</v>
+      </c>
       <c r="J53">
         <v>1705.46</v>
       </c>
       <c r="K53" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>105.98776202447587</v>
       </c>
     </row>
@@ -28173,12 +28463,15 @@
       <c r="H54">
         <v>1562.28</v>
       </c>
-      <c r="I54" s="21"/>
+      <c r="I54" s="21">
+        <f t="shared" ref="I54:I94" si="9">(H54+149.43)/300794/2*288.25</f>
+        <v>0.82016331359668071</v>
+      </c>
       <c r="J54">
         <v>887.82</v>
       </c>
       <c r="K54" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53.203014846788733</v>
       </c>
     </row>
@@ -28198,14 +28491,14 @@
         <v>12459.03</v>
       </c>
       <c r="I55" s="21">
-        <f t="shared" si="4"/>
-        <v>5.6690140221234717</v>
+        <f t="shared" si="9"/>
+        <v>6.0413249516280247</v>
       </c>
       <c r="J55">
         <v>1340.92</v>
       </c>
       <c r="K55" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82.453991983682769</v>
       </c>
     </row>
@@ -28224,12 +28517,15 @@
       <c r="H56">
         <v>134.54</v>
       </c>
-      <c r="I56" s="21"/>
+      <c r="I56" s="21">
+        <f t="shared" si="9"/>
+        <v>0.13606380529531842</v>
+      </c>
       <c r="J56">
         <v>1169.94</v>
       </c>
       <c r="K56" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71.41596048761977</v>
       </c>
     </row>
@@ -28255,14 +28551,14 @@
         <v>40325.81</v>
       </c>
       <c r="I57" s="21">
-        <f t="shared" si="4"/>
-        <v>24.786640307023315</v>
+        <f t="shared" si="9"/>
+        <v>19.393651352753047</v>
       </c>
       <c r="J57">
         <v>3257.44</v>
       </c>
       <c r="K57" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>206.1796214306043</v>
       </c>
     </row>
@@ -28282,14 +28578,14 @@
         <v>6943.06</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="4"/>
-        <v>1.8848576517527653</v>
+        <f t="shared" si="9"/>
+        <v>3.3983560883860715</v>
       </c>
       <c r="J58">
         <v>4567.2</v>
       </c>
       <c r="K58" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>290.73437714638078</v>
       </c>
     </row>
@@ -28314,12 +28610,15 @@
       <c r="H59">
         <v>807.36</v>
       </c>
-      <c r="I59" s="21"/>
+      <c r="I59" s="21">
+        <f t="shared" si="9"/>
+        <v>0.45844451268974779</v>
+      </c>
       <c r="J59">
         <v>1941.36</v>
       </c>
       <c r="K59" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121.2168626790627</v>
       </c>
     </row>
@@ -28338,12 +28637,15 @@
       <c r="H60">
         <v>2567.33</v>
       </c>
-      <c r="I60" s="21"/>
+      <c r="I60" s="21">
+        <f t="shared" si="9"/>
+        <v>1.3017315338736808</v>
+      </c>
       <c r="J60">
         <v>1668.54</v>
       </c>
       <c r="K60" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103.60430125225311</v>
       </c>
     </row>
@@ -28369,14 +28671,14 @@
         <v>5259.23</v>
       </c>
       <c r="I61" s="21">
-        <f t="shared" si="4"/>
-        <v>0.72968892873191682</v>
+        <f t="shared" si="9"/>
+        <v>2.5915514355339533</v>
       </c>
       <c r="J61">
         <v>5329.19</v>
       </c>
       <c r="K61" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>339.92650265629442</v>
       </c>
     </row>
@@ -28401,12 +28703,15 @@
       <c r="H62">
         <v>2761.96</v>
       </c>
-      <c r="I62" s="21"/>
+      <c r="I62" s="21">
+        <f t="shared" si="9"/>
+        <v>1.3949882103698876</v>
+      </c>
       <c r="J62">
         <v>2760.56</v>
       </c>
       <c r="K62" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>174.10231946684374</v>
       </c>
     </row>
@@ -28432,14 +28737,14 @@
         <v>8102.65</v>
       </c>
       <c r="I63" s="21">
-        <f t="shared" si="4"/>
-        <v>2.680378636369825</v>
+        <f t="shared" si="9"/>
+        <v>3.9539719209824664</v>
       </c>
       <c r="J63">
         <v>1928.97</v>
       </c>
       <c r="K63" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120.41699596812447</v>
       </c>
     </row>
@@ -28465,14 +28770,14 @@
         <v>60080.26</v>
       </c>
       <c r="I64" s="21">
-        <f t="shared" si="4"/>
-        <v>38.338912674470855</v>
+        <f t="shared" si="9"/>
+        <v>28.858966838600505</v>
       </c>
       <c r="J64">
         <v>4323.72</v>
       </c>
       <c r="K64" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>275.01593107864528</v>
       </c>
     </row>
@@ -28497,12 +28802,15 @@
       <c r="H65">
         <v>364.95</v>
       </c>
-      <c r="I65" s="21"/>
+      <c r="I65" s="21">
+        <f t="shared" si="9"/>
+        <v>0.24646441584606077</v>
+      </c>
       <c r="J65">
         <v>2694.46</v>
       </c>
       <c r="K65" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169.8350725263258</v>
       </c>
     </row>
@@ -28522,14 +28830,14 @@
         <v>25075.9</v>
       </c>
       <c r="I66" s="21">
-        <f t="shared" si="4"/>
-        <v>14.324646482894481</v>
+        <f t="shared" si="9"/>
+        <v>12.086679542311352</v>
       </c>
       <c r="J66">
         <v>3245.31</v>
       </c>
       <c r="K66" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>205.39653965468173</v>
       </c>
     </row>
@@ -28555,14 +28863,14 @@
         <v>8960.27</v>
       </c>
       <c r="I67" s="21">
-        <f t="shared" si="4"/>
-        <v>3.2687372000236032</v>
+        <f t="shared" si="9"/>
+        <v>4.3648992749190478</v>
       </c>
       <c r="J67">
         <v>4223.78</v>
       </c>
       <c r="K67" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>268.56406028839768</v>
       </c>
     </row>
@@ -28577,22 +28885,25 @@
         <v>210</v>
       </c>
       <c r="E68" s="20">
-        <f t="shared" ref="E68:E131" si="8">(B68+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="E68:E131" si="10">(B68+149.43)/300794/2*288.25</f>
         <v>0.65456479351316854</v>
       </c>
       <c r="F68" s="20">
-        <f t="shared" ref="F68:F131" si="9">(C68+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="F68:F131" si="11">(C68+149.43)/300794/2*288.25</f>
         <v>0.17222035263336369</v>
       </c>
       <c r="H68">
         <v>830</v>
       </c>
-      <c r="I68" s="21"/>
+      <c r="I68" s="21">
+        <f t="shared" si="9"/>
+        <v>0.46929243518820191</v>
+      </c>
       <c r="J68">
         <v>2904.86</v>
       </c>
       <c r="K68" s="22">
-        <f t="shared" ref="K68:K131" si="10">(J68-63.701)/2108.2/2*272.2</f>
+        <f t="shared" ref="K68:K131" si="12">(J68-63.701)/2108.2/2*272.2</f>
         <v>183.41795840053126</v>
       </c>
     </row>
@@ -28607,22 +28918,25 @@
         <v>586.20000000000005</v>
       </c>
       <c r="E69" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44315488340857867</v>
       </c>
       <c r="F69" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35247602595131555</v>
       </c>
       <c r="H69">
         <v>607.9</v>
       </c>
-      <c r="I69" s="21"/>
+      <c r="I69" s="21">
+        <f t="shared" si="9"/>
+        <v>0.36287354884073481</v>
+      </c>
       <c r="J69">
         <v>3875.08</v>
       </c>
       <c r="K69" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>246.05288013471207</v>
       </c>
     </row>
@@ -28634,7 +28948,7 @@
         <v>932.49</v>
       </c>
       <c r="E70" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51840036702859771</v>
       </c>
       <c r="F70" s="20"/>
@@ -28642,14 +28956,14 @@
         <v>40786.65</v>
       </c>
       <c r="I70" s="21">
-        <f t="shared" ref="I70:I127" si="11">(H70-4195.6)/220309/2*302.28</f>
-        <v>25.102793335723916</v>
+        <f t="shared" si="9"/>
+        <v>19.614462156824938</v>
       </c>
       <c r="J70">
         <v>8662.75</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>555.13261023622056</v>
       </c>
     </row>
@@ -28664,22 +28978,25 @@
         <v>158.69999999999999</v>
       </c>
       <c r="E71" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54784404359794414</v>
       </c>
       <c r="F71" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14764003354455207</v>
       </c>
       <c r="H71">
         <v>862.01</v>
       </c>
-      <c r="I71" s="21"/>
+      <c r="I71" s="21">
+        <f t="shared" si="9"/>
+        <v>0.48462997932139606</v>
+      </c>
       <c r="J71">
         <v>2465.0500000000002</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>155.02494967270661</v>
       </c>
     </row>
@@ -28694,22 +29011,25 @@
         <v>168.49</v>
       </c>
       <c r="E72" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.40112397521227156</v>
       </c>
       <c r="F72" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15233089755779705</v>
       </c>
       <c r="H72">
         <v>1952.07</v>
       </c>
-      <c r="I72" s="21"/>
+      <c r="I72" s="21">
+        <f t="shared" si="9"/>
+        <v>1.0069306153048265</v>
+      </c>
       <c r="J72">
         <v>2507.9299999999998</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>157.79317280144198</v>
       </c>
     </row>
@@ -28724,22 +29044,25 @@
         <v>311.31</v>
       </c>
       <c r="E73" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51410719628715995</v>
       </c>
       <c r="F73" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22076288921986476</v>
       </c>
       <c r="H73">
         <v>2412.27</v>
       </c>
-      <c r="I73" s="21"/>
+      <c r="I73" s="21">
+        <f t="shared" si="9"/>
+        <v>1.2274347643237564</v>
+      </c>
       <c r="J73">
         <v>1299.4100000000001</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79.774212550991365</v>
       </c>
     </row>
@@ -28754,22 +29077,25 @@
         <v>158.12</v>
       </c>
       <c r="E74" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31876792755174638</v>
       </c>
       <c r="F74" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14736212740280724</v>
       </c>
       <c r="H74">
         <v>665.69</v>
       </c>
-      <c r="I74" s="21"/>
+      <c r="I74" s="21">
+        <f t="shared" si="9"/>
+        <v>0.39056354182596731</v>
+      </c>
       <c r="J74">
         <v>3749.71</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>237.95931358504885</v>
       </c>
     </row>
@@ -28784,22 +29110,25 @@
         <v>165.38</v>
       </c>
       <c r="E75" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39404216008298043</v>
       </c>
       <c r="F75" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15084074565982034</v>
       </c>
       <c r="H75">
         <v>992.31</v>
       </c>
-      <c r="I75" s="21"/>
+      <c r="I75" s="21">
+        <f t="shared" si="9"/>
+        <v>0.54706303150993707</v>
+      </c>
       <c r="J75">
         <v>1708.1</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>106.1581936723271</v>
       </c>
     </row>
@@ -28814,25 +29143,25 @@
         <v>370.63</v>
       </c>
       <c r="E76" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30844706842556696</v>
       </c>
       <c r="F76" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.24918597944107926</v>
       </c>
       <c r="H76">
         <v>27725.18</v>
       </c>
       <c r="I76" s="21">
-        <f t="shared" si="11"/>
-        <v>16.14214907788606</v>
+        <f t="shared" si="9"/>
+        <v>13.356078134038579</v>
       </c>
       <c r="J76">
         <v>4342.3999999999996</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>276.22186410207757</v>
       </c>
     </row>
@@ -28847,22 +29176,25 @@
         <v>313.25</v>
       </c>
       <c r="E77" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35884870127063706</v>
       </c>
       <c r="F77" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22169243734914926</v>
       </c>
       <c r="H77">
         <v>375.96</v>
       </c>
-      <c r="I77" s="21"/>
+      <c r="I77" s="21">
+        <f t="shared" si="9"/>
+        <v>0.25173984105401037</v>
+      </c>
       <c r="J77">
         <v>2889.6</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>182.43281182999715</v>
       </c>
     </row>
@@ -28874,19 +29206,22 @@
         <v>511.88</v>
       </c>
       <c r="E78" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31686570792635488</v>
       </c>
       <c r="F78" s="20"/>
       <c r="H78">
         <v>3036.61</v>
       </c>
-      <c r="I78" s="21"/>
+      <c r="I78" s="21">
+        <f t="shared" si="9"/>
+        <v>1.5265863514564784</v>
+      </c>
       <c r="J78">
         <v>4753.7</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302.7743401479936</v>
       </c>
     </row>
@@ -28901,22 +29236,25 @@
         <v>364.25</v>
       </c>
       <c r="E79" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23410238402361749</v>
       </c>
       <c r="F79" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.24612901188188599</v>
       </c>
       <c r="H79">
         <v>797.74</v>
       </c>
-      <c r="I79" s="21"/>
+      <c r="I79" s="21">
+        <f t="shared" si="9"/>
+        <v>0.45383510392494536</v>
+      </c>
       <c r="J79">
         <v>2518.8200000000002</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>158.4962033488284</v>
       </c>
     </row>
@@ -28931,22 +29269,25 @@
         <v>275.61</v>
       </c>
       <c r="E80" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.66305530529199386</v>
       </c>
       <c r="F80" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20365728704694908</v>
       </c>
       <c r="H80">
         <v>255.13</v>
       </c>
-      <c r="I80" s="21"/>
+      <c r="I80" s="21">
+        <f t="shared" si="9"/>
+        <v>0.19384432535223445</v>
+      </c>
       <c r="J80">
         <v>4363.6499999999996</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>277.5937097523954</v>
       </c>
     </row>
@@ -28961,25 +29302,25 @@
         <v>332.17</v>
       </c>
       <c r="E81" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.41465033793892175</v>
       </c>
       <c r="F81" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.23075792735227432</v>
       </c>
       <c r="H81">
         <v>4673.99</v>
       </c>
       <c r="I81" s="21">
-        <f t="shared" si="11"/>
-        <v>0.32819296805849918</v>
+        <f t="shared" si="9"/>
+        <v>2.3111345555429961</v>
       </c>
       <c r="J81">
         <v>4909.21</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>312.81366801062518</v>
       </c>
     </row>
@@ -28994,25 +29335,25 @@
         <v>310.97000000000003</v>
       </c>
       <c r="E82" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33768950261640857</v>
       </c>
       <c r="F82" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22059997872297987</v>
       </c>
       <c r="H82">
         <v>24006.2</v>
       </c>
       <c r="I82" s="21">
-        <f t="shared" si="11"/>
-        <v>13.590793313028517</v>
+        <f t="shared" si="9"/>
+        <v>11.574134370200204</v>
       </c>
       <c r="J82">
         <v>4436.32</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>282.28509908927049</v>
       </c>
     </row>
@@ -29027,22 +29368,25 @@
         <v>78.42</v>
       </c>
       <c r="E83" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.63293123782389271</v>
       </c>
       <c r="F83" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10917399033890306</v>
       </c>
       <c r="H83">
         <v>870.45</v>
       </c>
-      <c r="I83" s="21"/>
+      <c r="I83" s="21">
+        <f t="shared" si="9"/>
+        <v>0.48867399283230389</v>
+      </c>
       <c r="J83">
         <v>2154.37</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>134.9682434778484</v>
       </c>
     </row>
@@ -29057,22 +29401,25 @@
         <v>617.94000000000005</v>
       </c>
       <c r="E84" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31060802825189332</v>
       </c>
       <c r="F84" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36768419998404228</v>
       </c>
       <c r="H84">
         <v>801.31</v>
       </c>
-      <c r="I84" s="21"/>
+      <c r="I84" s="21">
+        <f t="shared" si="9"/>
+        <v>0.45554566414223691</v>
+      </c>
       <c r="J84">
         <v>4897.4399999999996</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>312.05382691395499</v>
       </c>
     </row>
@@ -29087,22 +29434,25 @@
         <v>273.33999999999997</v>
       </c>
       <c r="E85" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.67909719774995514</v>
       </c>
       <c r="F85" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20256961990598216</v>
       </c>
       <c r="H85">
         <v>1307.44</v>
       </c>
-      <c r="I85" s="21"/>
+      <c r="I85" s="21">
+        <f t="shared" si="9"/>
+        <v>0.69805710469623738</v>
+      </c>
       <c r="J85">
         <v>3582.46</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>227.16208134901814</v>
       </c>
     </row>
@@ -29117,22 +29467,25 @@
         <v>643.47</v>
       </c>
       <c r="E86" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.48842962708697651</v>
       </c>
       <c r="F86" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37991686170601807</v>
       </c>
       <c r="H86">
         <v>759.95</v>
       </c>
-      <c r="I86" s="21"/>
+      <c r="I86" s="21">
+        <f t="shared" si="9"/>
+        <v>0.4357280813447077</v>
+      </c>
       <c r="J86">
         <v>3170.65</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200.57668100749456</v>
       </c>
     </row>
@@ -29144,19 +29497,22 @@
         <v>553.96</v>
       </c>
       <c r="E87" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33702827765846399</v>
       </c>
       <c r="F87" s="20"/>
       <c r="H87">
         <v>1178.26</v>
       </c>
-      <c r="I87" s="21"/>
+      <c r="I87" s="21">
+        <f t="shared" si="9"/>
+        <v>0.63616069885037607</v>
+      </c>
       <c r="J87">
         <v>4505</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>286.71890423109761</v>
       </c>
     </row>
@@ -29168,19 +29524,22 @@
         <v>520.15</v>
       </c>
       <c r="E88" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.32082826618882021</v>
       </c>
       <c r="F88" s="20"/>
       <c r="H88">
         <v>345.14</v>
       </c>
-      <c r="I88" s="21"/>
+      <c r="I88" s="21">
+        <f t="shared" si="9"/>
+        <v>0.23697248365991341</v>
+      </c>
       <c r="J88">
         <v>2670.34</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>168.27794701641213</v>
       </c>
     </row>
@@ -29195,25 +29554,25 @@
         <v>324.83999999999997</v>
       </c>
       <c r="E89" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23909511160461977</v>
       </c>
       <c r="F89" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22724576869884372</v>
       </c>
       <c r="H89">
         <v>19845.43</v>
       </c>
       <c r="I89" s="21">
-        <f t="shared" si="11"/>
-        <v>10.736353513474254</v>
+        <f t="shared" si="9"/>
+        <v>9.5805075816006973</v>
       </c>
       <c r="J89">
         <v>1106.1600000000001</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67.298486813395328</v>
       </c>
     </row>
@@ -29228,22 +29587,25 @@
         <v>157.47999999999999</v>
       </c>
       <c r="E90" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39079832460088959</v>
       </c>
       <c r="F90" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14705547234984739</v>
       </c>
       <c r="H90">
         <v>518.87</v>
       </c>
-      <c r="I90" s="21"/>
+      <c r="I90" s="21">
+        <f t="shared" si="9"/>
+        <v>0.32021495608290057</v>
+      </c>
       <c r="J90">
         <v>3181.72</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>201.29133189450715</v>
       </c>
     </row>
@@ -29258,22 +29620,25 @@
         <v>253.76</v>
       </c>
       <c r="E91" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51447134916254977</v>
       </c>
       <c r="F91" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19318789187949229</v>
       </c>
       <c r="H91">
         <v>549.6</v>
       </c>
-      <c r="I91" s="21"/>
+      <c r="I91" s="21">
+        <f t="shared" si="9"/>
+        <v>0.33493919011017509</v>
+      </c>
       <c r="J91">
         <v>2894.73</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>182.76399150934449</v>
       </c>
     </row>
@@ -29288,22 +29653,25 @@
         <v>409.98</v>
       </c>
       <c r="E92" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35175251168573846</v>
       </c>
       <c r="F92" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26804047371290651</v>
       </c>
       <c r="H92">
         <v>946.79</v>
       </c>
-      <c r="I92" s="21"/>
+      <c r="I92" s="21">
+        <f t="shared" si="9"/>
+        <v>0.52525219086816888</v>
+      </c>
       <c r="J92">
         <v>2752.97</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>173.61232847927141</v>
       </c>
     </row>
@@ -29315,19 +29683,22 @@
         <v>629.9</v>
       </c>
       <c r="E93" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.37341481628622908</v>
       </c>
       <c r="F93" s="20"/>
       <c r="H93">
         <v>173.83</v>
       </c>
-      <c r="I93" s="21"/>
+      <c r="I93" s="21">
+        <f t="shared" si="9"/>
+        <v>0.15488955065593063</v>
+      </c>
       <c r="J93">
         <v>3686.14</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>233.85539697372167</v>
       </c>
     </row>
@@ -29342,22 +29713,25 @@
         <v>221.79</v>
       </c>
       <c r="E94" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19524343903136365</v>
       </c>
       <c r="F94" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.17786951368710816</v>
       </c>
       <c r="H94">
         <v>438.47</v>
       </c>
-      <c r="I94" s="21"/>
+      <c r="I94" s="21">
+        <f t="shared" si="9"/>
+        <v>0.28169141505482159</v>
+      </c>
       <c r="J94">
         <v>2849.42</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>179.83889379565508</v>
       </c>
     </row>
@@ -29402,43 +29776,43 @@
         <v>49</v>
       </c>
       <c r="B99" s="5">
-        <f t="shared" ref="B99:K99" si="12">AVERAGE(B53:B98)</f>
+        <f t="shared" ref="B99:K99" si="13">AVERAGE(B53:B98)</f>
         <v>719.74952380952391</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>295.89406250000002</v>
       </c>
       <c r="D99" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.41646608266470608</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21337636557847731</v>
       </c>
       <c r="G99" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7467.1266666666652</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="12"/>
-        <v>12.121781393197038</v>
+        <f t="shared" si="13"/>
+        <v>3.6494618562316186</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3187.6823809523812</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>201.67624795921597</v>
       </c>
     </row>
@@ -29447,43 +29821,43 @@
         <v>50</v>
       </c>
       <c r="B100" s="5">
-        <f t="shared" ref="B100:K100" si="13">STDEV(B53:B98)</f>
+        <f t="shared" ref="B100:K100" si="14">STDEV(B53:B98)</f>
         <v>271.90895561056999</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>163.48560323040331</v>
       </c>
       <c r="D100" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1302847737234569</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.8333884869983786E-2</v>
       </c>
       <c r="G100" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13408.722902620586</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="13"/>
-        <v>11.633838800848167</v>
+        <f t="shared" si="14"/>
+        <v>6.424769737229437</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1470.2969612140148</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>94.918611337267521</v>
       </c>
     </row>
@@ -29496,39 +29870,39 @@
         <v>37.778275165976844</v>
       </c>
       <c r="C101" s="8">
-        <f t="shared" ref="C101" si="14">+C100*100/C99</f>
+        <f t="shared" ref="C101" si="15">+C100*100/C99</f>
         <v>55.251397019973425</v>
       </c>
       <c r="D101" s="8" t="e">
-        <f t="shared" ref="D101" si="15">+D100*100/D99</f>
+        <f t="shared" ref="D101" si="16">+D100*100/D99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" ref="E101" si="16">+E100*100/E99</f>
+        <f t="shared" ref="E101" si="17">+E100*100/E99</f>
         <v>31.283405575274241</v>
       </c>
       <c r="F101" s="8">
-        <f t="shared" ref="F101" si="17">+F100*100/F99</f>
+        <f t="shared" ref="F101" si="18">+F100*100/F99</f>
         <v>36.711603301338222</v>
       </c>
       <c r="G101" s="8" t="e">
-        <f t="shared" ref="G101" si="18">+G100*100/G99</f>
+        <f t="shared" ref="G101" si="19">+G100*100/G99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H101" s="8">
-        <f t="shared" ref="H101" si="19">+H100*100/H99</f>
+        <f t="shared" ref="H101" si="20">+H100*100/H99</f>
         <v>179.57004750538479</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" ref="I101" si="20">+I100*100/I99</f>
-        <v>95.974662662843315</v>
+        <f t="shared" ref="I101" si="21">+I100*100/I99</f>
+        <v>176.04704447749899</v>
       </c>
       <c r="J101" s="8">
-        <f t="shared" ref="J101" si="21">+J100*100/J99</f>
+        <f t="shared" ref="J101" si="22">+J100*100/J99</f>
         <v>46.124324368061266</v>
       </c>
       <c r="K101" s="8">
-        <f t="shared" ref="K101" si="22">+K100*100/K99</f>
+        <f t="shared" ref="K101" si="23">+K100*100/K99</f>
         <v>47.064843925727168</v>
       </c>
     </row>
@@ -29546,7 +29920,7 @@
         <v>244.75</v>
       </c>
       <c r="E103" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18887076371204214</v>
       </c>
       <c r="F103" s="20"/>
@@ -29558,7 +29932,7 @@
         <v>1375.93</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>84.714148040982835</v>
       </c>
     </row>
@@ -29570,7 +29944,7 @@
         <v>470.74</v>
       </c>
       <c r="E104" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29715353780328069</v>
       </c>
       <c r="F104" s="20"/>
@@ -29582,7 +29956,7 @@
         <v>789.05</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>46.826676264111562</v>
       </c>
     </row>
@@ -29594,7 +29968,7 @@
         <v>240.04</v>
       </c>
       <c r="E105" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18661397418166586</v>
       </c>
       <c r="F105" s="20"/>
@@ -29606,7 +29980,7 @@
         <v>657.89</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38.359322123138227</v>
       </c>
     </row>
@@ -29621,11 +29995,11 @@
         <v>589.24</v>
       </c>
       <c r="E106" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.34572961478619918</v>
       </c>
       <c r="F106" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35393263745287473</v>
       </c>
       <c r="H106">
@@ -29636,7 +30010,7 @@
         <v>2298.7199999999998</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>144.28711028365427</v>
       </c>
     </row>
@@ -29651,11 +30025,11 @@
         <v>532.4</v>
       </c>
       <c r="E107" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29117376427056391</v>
       </c>
       <c r="F107" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32669783556187953</v>
       </c>
       <c r="H107">
@@ -29666,7 +30040,7 @@
         <v>1903.95</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>118.8017687600797</v>
       </c>
     </row>
@@ -29681,11 +30055,11 @@
         <v>135.74</v>
       </c>
       <c r="E108" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31617573405719529</v>
       </c>
       <c r="F108" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.13663878351961808</v>
       </c>
       <c r="H108">
@@ -29696,7 +30070,7 @@
         <v>530.96</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30.165045963381086</v>
       </c>
     </row>
@@ -29711,11 +30085,11 @@
         <v>259.91000000000003</v>
       </c>
       <c r="E109" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.65836444127874894</v>
       </c>
       <c r="F109" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19613465527902821</v>
       </c>
       <c r="H109">
@@ -29726,7 +30100,7 @@
         <v>1406.45</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>86.684441182051032</v>
       </c>
     </row>
@@ -29738,7 +30112,7 @@
         <v>554.09</v>
       </c>
       <c r="E110" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33709056696609635</v>
       </c>
       <c r="F110" s="20"/>
@@ -29750,7 +30124,7 @@
         <v>1050.94</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63.733624845840062</v>
       </c>
     </row>
@@ -29762,7 +30136,7 @@
         <v>1065.1099999999999</v>
       </c>
       <c r="E111" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.58194504378411793</v>
       </c>
       <c r="F111" s="20"/>
@@ -29774,7 +30148,7 @@
         <v>2363.85</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>148.49173650507544</v>
       </c>
     </row>
@@ -29786,7 +30160,7 @@
         <v>630.76</v>
       </c>
       <c r="E112" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.37382688401364389</v>
       </c>
       <c r="F112" s="20"/>
@@ -29798,7 +30172,7 @@
         <v>2013.22</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>125.85596048761978</v>
       </c>
     </row>
@@ -29810,7 +30184,7 @@
         <v>619.03</v>
       </c>
       <c r="E113" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.36820647187111444</v>
       </c>
       <c r="F113" s="20"/>
@@ -29822,7 +30196,7 @@
         <v>2399.1999999999998</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>150.77384209278057</v>
       </c>
     </row>
@@ -29837,11 +30211,11 @@
         <v>365.98</v>
       </c>
       <c r="E114" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.69069738342520126</v>
       </c>
       <c r="F114" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.24695793882191802</v>
       </c>
       <c r="H114">
@@ -29852,7 +30226,7 @@
         <v>1183.22</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72.273283322265442</v>
       </c>
     </row>
@@ -29865,7 +30239,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.31171486133367016</v>
       </c>
       <c r="H115">
@@ -29876,7 +30250,7 @@
         <v>3058.78</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>193.35463992979794</v>
       </c>
     </row>
@@ -29891,11 +30265,11 @@
         <v>172.25</v>
       </c>
       <c r="E116" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31387102967479402</v>
       </c>
       <c r="F116" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15413249599393603</v>
       </c>
       <c r="H116">
@@ -29906,7 +30280,7 @@
         <v>3153.46</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>199.46693857319042</v>
       </c>
     </row>
@@ -29921,11 +30295,11 @@
         <v>475.66</v>
       </c>
       <c r="E117" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.73536360848288196</v>
       </c>
       <c r="F117" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.29951094852290938</v>
       </c>
       <c r="H117">
@@ -29936,7 +30310,7 @@
         <v>3712.03</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>235.52678915662653</v>
       </c>
     </row>
@@ -29948,7 +30322,7 @@
         <v>620.72</v>
       </c>
       <c r="E118" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.36901623287033652</v>
       </c>
       <c r="F118" s="20"/>
@@ -29960,7 +30334,7 @@
         <v>1962.21</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>122.56288535243337</v>
       </c>
     </row>
@@ -29975,11 +30349,11 @@
         <v>54.19</v>
       </c>
       <c r="E119" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.61604125248508945</v>
       </c>
       <c r="F119" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.7564221693251851E-2</v>
       </c>
       <c r="H119">
@@ -29990,7 +30364,7 @@
         <v>806.97</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>47.983545631344278</v>
       </c>
     </row>
@@ -30005,11 +30379,11 @@
         <v>431</v>
       </c>
       <c r="E120" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54234821007067957</v>
       </c>
       <c r="F120" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27811217560855606</v>
       </c>
       <c r="H120">
@@ -30020,7 +30394,7 @@
         <v>1065.01</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64.641948059956363</v>
       </c>
     </row>
@@ -30035,11 +30409,11 @@
         <v>259.64999999999998</v>
       </c>
       <c r="E121" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26363709881181141</v>
       </c>
       <c r="F121" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19601007666376322</v>
       </c>
       <c r="H121">
@@ -30050,7 +30424,7 @@
         <v>2079.98</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>130.16581534010058</v>
       </c>
     </row>
@@ -30062,7 +30436,7 @@
         <v>332.16</v>
       </c>
       <c r="E122" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23075313586707183</v>
       </c>
       <c r="F122" s="20"/>
@@ -30074,7 +30448,7 @@
         <v>1329.09</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81.690277440470553</v>
       </c>
     </row>
@@ -30089,11 +30463,11 @@
         <v>814.47</v>
       </c>
       <c r="E123" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54415939147722359</v>
       </c>
       <c r="F123" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.46185125866872351</v>
       </c>
       <c r="H123">
@@ -30104,7 +30478,7 @@
         <v>3268.03</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>206.86328474528037</v>
       </c>
     </row>
@@ -30119,11 +30493,11 @@
         <v>519.75</v>
       </c>
       <c r="E124" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16434794244566048</v>
       </c>
       <c r="F124" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32063660678072037</v>
       </c>
       <c r="H124">
@@ -30134,7 +30508,7 @@
         <v>1742.88</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>108.40350151788256</v>
       </c>
     </row>
@@ -30146,7 +30520,7 @@
         <v>797.61</v>
       </c>
       <c r="E125" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.45377281461731284</v>
       </c>
       <c r="F125" s="20"/>
@@ -30158,7 +30532,7 @@
         <v>1319.04</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81.041475144673186</v>
       </c>
     </row>
@@ -30173,11 +30547,11 @@
         <v>1257.98</v>
       </c>
       <c r="E126" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35104337187576884</v>
       </c>
       <c r="F126" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.67435841888468517</v>
       </c>
       <c r="H126">
@@ -30188,7 +30562,7 @@
         <v>1884.5</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>117.54612650602409</v>
       </c>
     </row>
@@ -30200,7 +30574,7 @@
         <v>455.52</v>
       </c>
       <c r="E127" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28986089732507969</v>
       </c>
       <c r="F127" s="20"/>
@@ -30208,14 +30582,14 @@
         <v>8819.64</v>
       </c>
       <c r="I127" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I70:I127" si="24">(H127-4195.6)/220309/2*302.28</f>
         <v>3.172259896781338</v>
       </c>
       <c r="J127">
         <v>11202.07</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>719.0646147898683</v>
       </c>
     </row>
@@ -30230,11 +30604,11 @@
         <v>44.85</v>
       </c>
       <c r="E128" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.22815135940211576</v>
       </c>
       <c r="F128" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.3088974514119308E-2</v>
       </c>
       <c r="H128">
@@ -30245,7 +30619,7 @@
         <v>2207.4299999999998</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>138.393661369889</v>
       </c>
     </row>
@@ -30257,7 +30631,7 @@
         <v>251.66</v>
       </c>
       <c r="E129" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19218167998696786</v>
       </c>
       <c r="F129" s="20"/>
@@ -30269,7 +30643,7 @@
         <v>2165.16</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>135.66481828099799</v>
       </c>
     </row>
@@ -30281,7 +30655,7 @@
         <v>724.03</v>
       </c>
       <c r="E130" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.41851706649733705</v>
       </c>
       <c r="F130" s="20"/>
@@ -30293,7 +30667,7 @@
         <v>4719.54</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>300.56905791670619</v>
       </c>
     </row>
@@ -30308,11 +30682,11 @@
         <v>238.4</v>
       </c>
       <c r="E131" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16862673873149067</v>
       </c>
       <c r="F131" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.1858281706084563</v>
       </c>
       <c r="H131">
@@ -30323,7 +30697,7 @@
         <v>1792.33</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>111.59586704297504</v>
       </c>
     </row>
@@ -30338,11 +30712,11 @@
         <v>826.66</v>
       </c>
       <c r="E132" s="20">
-        <f t="shared" ref="E132:E194" si="23">(B132+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="E132:E194" si="25">(B132+149.43)/300794/2*288.25</f>
         <v>0.26536203348471044</v>
       </c>
       <c r="F132" s="20">
-        <f t="shared" ref="F132:F191" si="24">(C132+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="F132:F191" si="26">(C132+149.43)/300794/2*288.25</f>
         <v>0.46769207913056771</v>
       </c>
       <c r="H132">
@@ -30353,7 +30727,7 @@
         <v>4957.8100000000004</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" ref="K132:K194" si="25">(J132-63.701)/2108.2/2*272.2</f>
+        <f t="shared" ref="K132:K194" si="27">(J132-63.701)/2108.2/2*272.2</f>
         <v>315.951159709705</v>
       </c>
     </row>
@@ -30368,11 +30742,11 @@
         <v>131.27000000000001</v>
       </c>
       <c r="E133" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.49931588146705047</v>
       </c>
       <c r="F133" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.13449698963410178</v>
       </c>
       <c r="H133">
@@ -30383,7 +30757,7 @@
         <v>936.19</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>56.325658334123901</v>
       </c>
     </row>
@@ -30398,11 +30772,11 @@
         <v>427.49</v>
       </c>
       <c r="E134" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.662796565091059</v>
       </c>
       <c r="F134" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27643036430247947</v>
       </c>
       <c r="H134">
@@ -30413,7 +30787,7 @@
         <v>2840.57</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>179.26756043069918</v>
       </c>
     </row>
@@ -30428,11 +30802,11 @@
         <v>92.41</v>
       </c>
       <c r="E135" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.44049081763599007</v>
       </c>
       <c r="F135" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.11587727813719689</v>
       </c>
       <c r="H135">
@@ -30443,7 +30817,7 @@
         <v>1363.41</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83.905888862536756</v>
       </c>
     </row>
@@ -30455,7 +30829,7 @@
         <v>413.85</v>
       </c>
       <c r="E136" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.26989477848627297</v>
       </c>
       <c r="F136" s="20"/>
@@ -30467,7 +30841,7 @@
         <v>1805.05</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>112.4170377098947</v>
       </c>
     </row>
@@ -30479,7 +30853,7 @@
         <v>601.1</v>
       </c>
       <c r="E137" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.35961533890303665</v>
       </c>
       <c r="F137" s="20"/>
@@ -30491,7 +30865,7 @@
         <v>2726.2</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>171.88412574708283</v>
       </c>
     </row>
@@ -30506,11 +30880,11 @@
         <v>334.82</v>
       </c>
       <c r="E138" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.26793506103845161</v>
       </c>
       <c r="F138" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.23202767093093613</v>
       </c>
       <c r="H138">
@@ -30521,7 +30895,7 @@
         <v>1290.8699999999999</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>79.222891993169512</v>
       </c>
     </row>
@@ -30536,11 +30910,11 @@
         <v>307.36</v>
       </c>
       <c r="E139" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.35876245453699213</v>
       </c>
       <c r="F139" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.2188702525648783</v>
       </c>
       <c r="H139">
@@ -30551,7 +30925,7 @@
         <v>1608.7</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>99.741183900958163</v>
       </c>
     </row>
@@ -30563,7 +30937,7 @@
         <v>319.91000000000003</v>
       </c>
       <c r="E140" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.22488356649401253</v>
       </c>
       <c r="F140" s="20"/>
@@ -30575,7 +30949,7 @@
         <v>1065.8900000000001</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>64.698758609240116</v>
       </c>
     </row>
@@ -30590,11 +30964,11 @@
         <v>1065.81</v>
       </c>
       <c r="E141" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.41664359578316051</v>
       </c>
       <c r="F141" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.58228044774829291</v>
       </c>
       <c r="H141">
@@ -30605,7 +30979,7 @@
         <v>1794.74</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>111.75145047908168</v>
       </c>
     </row>
@@ -30620,11 +30994,11 @@
         <v>207.64</v>
       </c>
       <c r="E142" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.14378288795654171</v>
       </c>
       <c r="F142" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1710895621255743</v>
       </c>
       <c r="H142">
@@ -30635,7 +31009,7 @@
         <v>1212.1500000000001</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>74.140930129968709</v>
       </c>
     </row>
@@ -30647,7 +31021,7 @@
         <v>483.7</v>
       </c>
       <c r="E143" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.30336330262571726</v>
       </c>
       <c r="F143" s="20"/>
@@ -30659,7 +31033,7 @@
         <v>2094.19</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>131.08317659614838</v>
       </c>
     </row>
@@ -30674,11 +31048,11 @@
         <v>352.38</v>
       </c>
       <c r="E144" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20008763057108855</v>
       </c>
       <c r="F144" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.24044151894652152</v>
       </c>
       <c r="H144">
@@ -30689,7 +31063,7 @@
         <v>849.51</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>50.729819229674604</v>
       </c>
     </row>
@@ -30734,43 +31108,43 @@
         <v>49</v>
       </c>
       <c r="B149" s="5">
-        <f t="shared" ref="B149:K149" si="26">AVERAGE(B103:B148)</f>
+        <f t="shared" ref="B149:K149" si="28">AVERAGE(B103:B148)</f>
         <v>610.58048780487786</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>415.93759999999997</v>
       </c>
       <c r="D149" s="5" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.36415790060598957</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27089504893714633</v>
       </c>
       <c r="G149" s="5" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>879.70357142857165</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.172259896781338</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2142.5516666666667</v>
       </c>
       <c r="K149" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>134.20528210479713</v>
       </c>
     </row>
@@ -30779,43 +31153,43 @@
         <v>50</v>
       </c>
       <c r="B150" s="5">
-        <f t="shared" ref="B150:K150" si="27">STDEV(B103:B148)</f>
+        <f t="shared" ref="B150:K150" si="29">STDEV(B103:B148)</f>
         <v>329.57391258981113</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>307.21866568293018</v>
       </c>
       <c r="D150" s="5" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.15791485253032492</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.14720336905507533</v>
       </c>
       <c r="G150" s="5" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1450.1353148751011</v>
       </c>
       <c r="I150" s="5" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1744.8888427492484</v>
       </c>
       <c r="K150" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>112.64556090417081</v>
       </c>
     </row>
@@ -30828,39 +31202,39 @@
         <v>53.977144565276788</v>
       </c>
       <c r="C151" s="8">
-        <f t="shared" ref="C151" si="28">+C150*100/C149</f>
+        <f t="shared" ref="C151" si="30">+C150*100/C149</f>
         <v>73.861720047172994</v>
       </c>
       <c r="D151" s="8" t="e">
-        <f t="shared" ref="D151" si="29">+D150*100/D149</f>
+        <f t="shared" ref="D151" si="31">+D150*100/D149</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E151" s="8">
-        <f t="shared" ref="E151" si="30">+E150*100/E149</f>
+        <f t="shared" ref="E151" si="32">+E150*100/E149</f>
         <v>43.364390081209621</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" ref="F151" si="31">+F150*100/F149</f>
+        <f t="shared" ref="F151" si="33">+F150*100/F149</f>
         <v>54.339630654980994</v>
       </c>
       <c r="G151" s="8" t="e">
-        <f t="shared" ref="G151" si="32">+G150*100/G149</f>
+        <f t="shared" ref="G151" si="34">+G150*100/G149</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="8">
-        <f t="shared" ref="H151" si="33">+H150*100/H149</f>
+        <f t="shared" ref="H151" si="35">+H150*100/H149</f>
         <v>164.84363164744138</v>
       </c>
       <c r="I151" s="8" t="e">
-        <f t="shared" ref="I151" si="34">+I150*100/I149</f>
+        <f t="shared" ref="I151" si="36">+I150*100/I149</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J151" s="8">
-        <f t="shared" ref="J151" si="35">+J150*100/J149</f>
+        <f t="shared" ref="J151" si="37">+J150*100/J149</f>
         <v>81.439755684580845</v>
       </c>
       <c r="K151" s="8">
-        <f t="shared" ref="K151" si="36">+K150*100/K149</f>
+        <f t="shared" ref="K151" si="38">+K150*100/K149</f>
         <v>83.935266285725675</v>
       </c>
     </row>
@@ -30881,25 +31255,25 @@
         <v>301.8</v>
       </c>
       <c r="E153" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.42821982403239434</v>
       </c>
       <c r="F153" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.21620618679228976</v>
       </c>
       <c r="H153">
         <v>40586.1</v>
       </c>
       <c r="I153" s="21">
-        <f t="shared" ref="I153:I194" si="37">(H153-4195.6)/220309/2*302.28</f>
+        <f t="shared" ref="I153:I194" si="39">(H153-4195.6)/220309/2*302.28</f>
         <v>24.965208729557119</v>
       </c>
       <c r="J153">
         <v>7144.36</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>457.10923531922964</v>
       </c>
     </row>
@@ -30911,7 +31285,7 @@
         <v>205.61</v>
       </c>
       <c r="E154" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17011689062946736</v>
       </c>
       <c r="F154" s="20"/>
@@ -30923,7 +31297,7 @@
         <v>719.14</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>42.313465468171906</v>
       </c>
     </row>
@@ -30938,11 +31312,11 @@
         <v>915.88</v>
       </c>
       <c r="E155" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.50874073286036292</v>
       </c>
       <c r="F155" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.51044171010724948</v>
       </c>
       <c r="H155">
@@ -30953,7 +31327,7 @@
         <v>1166.52</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>71.19517403472156</v>
       </c>
     </row>
@@ -30968,11 +31342,11 @@
         <v>725.12</v>
       </c>
       <c r="E156" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.64319459912764221</v>
       </c>
       <c r="F156" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.41903933838440921</v>
       </c>
       <c r="H156">
@@ -30983,7 +31357,7 @@
         <v>2288.4699999999998</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>143.62539649938336</v>
       </c>
     </row>
@@ -30998,11 +31372,11 @@
         <v>392.72</v>
       </c>
       <c r="E157" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.69707005874452288</v>
       </c>
       <c r="F157" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25977037025339605</v>
       </c>
       <c r="H157">
@@ -31013,7 +31387,7 @@
         <v>2261.33</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>141.87330751351863</v>
       </c>
     </row>
@@ -31028,11 +31402,11 @@
         <v>105</v>
       </c>
       <c r="E158" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.48569368903635046</v>
       </c>
       <c r="F158" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1219097580071411</v>
       </c>
       <c r="H158">
@@ -31043,7 +31417,7 @@
         <v>3844.54</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>244.08129584479653</v>
       </c>
     </row>
@@ -31058,11 +31432,11 @@
         <v>424.98</v>
       </c>
       <c r="E159" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.52610986671941595</v>
       </c>
       <c r="F159" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.2752277015166526</v>
       </c>
       <c r="H159">
@@ -31073,7 +31447,7 @@
         <v>2448.9699999999998</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>153.98686599943079</v>
       </c>
     </row>
@@ -31085,7 +31459,7 @@
         <v>1815.95</v>
       </c>
       <c r="E160" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.9417089187284321</v>
       </c>
       <c r="F160" s="20"/>
@@ -31097,7 +31471,7 @@
         <v>3554.48</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>225.35576411156438</v>
       </c>
     </row>
@@ -31109,7 +31483,7 @@
         <v>1775.73</v>
       </c>
       <c r="E161" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.92243756524398768</v>
       </c>
       <c r="F161" s="20"/>
@@ -31121,7 +31495,7 @@
         <v>3340.55</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>211.54499046580023</v>
       </c>
     </row>
@@ -31133,7 +31507,7 @@
         <v>343.41</v>
       </c>
       <c r="E162" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.23614355671988141</v>
       </c>
       <c r="F162" s="20"/>
@@ -31145,7 +31519,7 @@
         <v>3704.76</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>235.05745655061193</v>
       </c>
     </row>
@@ -31157,7 +31531,7 @@
         <v>243.2</v>
       </c>
       <c r="E163" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.18812808350565505</v>
       </c>
       <c r="F163" s="20"/>
@@ -31165,14 +31539,14 @@
         <v>30058.2</v>
       </c>
       <c r="I163" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>17.742685791320369</v>
       </c>
       <c r="J163">
         <v>15353.95</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>987.09936860829157</v>
       </c>
     </row>
@@ -31187,11 +31561,11 @@
         <v>135</v>
       </c>
       <c r="E164" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.43648513600670225</v>
       </c>
       <c r="F164" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.13628421361463328</v>
       </c>
       <c r="H164">
@@ -31202,7 +31576,7 @@
         <v>1726.6</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>107.35250635613319</v>
       </c>
     </row>
@@ -31217,11 +31591,11 @@
         <v>2053.91</v>
       </c>
       <c r="E165" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17393570433585775</v>
       </c>
       <c r="F165" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0557271006070599</v>
       </c>
       <c r="H165">
@@ -31232,7 +31606,7 @@
         <v>2438.66</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>153.32127876861779</v>
       </c>
     </row>
@@ -31247,11 +31621,11 @@
         <v>250.88</v>
       </c>
       <c r="E166" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.58907477376543416</v>
       </c>
       <c r="F166" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.19180794414117303</v>
       </c>
       <c r="H166">
@@ -31262,7 +31636,7 @@
         <v>1699.73</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>105.61784787970781</v>
       </c>
     </row>
@@ -31277,25 +31651,25 @@
         <v>628.89</v>
       </c>
       <c r="E167" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.77327383940504135</v>
       </c>
       <c r="F167" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.37293087628077687</v>
       </c>
       <c r="H167">
         <v>11606.79</v>
       </c>
       <c r="I167" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.0843463344665905</v>
       </c>
       <c r="J167">
         <v>2265.86</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>142.16575272744521</v>
       </c>
     </row>
@@ -31307,7 +31681,7 @@
         <v>287.62</v>
       </c>
       <c r="E168" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20941186077514845</v>
       </c>
       <c r="F168" s="20"/>
@@ -31319,7 +31693,7 @@
         <v>3355.52</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>212.51141537804764</v>
       </c>
     </row>
@@ -31334,11 +31708,11 @@
         <v>62.48</v>
       </c>
       <c r="E169" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.22788303623077588</v>
       </c>
       <c r="F169" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.10153636292612218</v>
       </c>
       <c r="H169">
@@ -31349,7 +31723,7 @@
         <v>2598.0500000000002</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>163.61108950763685</v>
       </c>
     </row>
@@ -31364,11 +31738,11 @@
         <v>168.14</v>
       </c>
       <c r="E170" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.47633112695067059</v>
       </c>
       <c r="F170" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15216319557570962</v>
       </c>
       <c r="H170">
@@ -31379,7 +31753,7 @@
         <v>3175.78</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>200.90786068684187</v>
       </c>
     </row>
@@ -31394,11 +31768,11 @@
         <v>313.42</v>
       </c>
       <c r="E171" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.26868732421524366</v>
       </c>
       <c r="F171" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.22177389259759173</v>
       </c>
       <c r="H171">
@@ -31409,7 +31783,7 @@
         <v>1365.46</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84.038231619390956</v>
       </c>
     </row>
@@ -31424,11 +31798,11 @@
         <v>478.24</v>
       </c>
       <c r="E172" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.4456368727434723</v>
       </c>
       <c r="F172" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.3007471517051537</v>
       </c>
       <c r="H172">
@@ -31439,7 +31813,7 @@
         <v>4556.3999999999996</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>290.03715676880751</v>
       </c>
     </row>
@@ -31454,11 +31828,11 @@
         <v>90.25</v>
       </c>
       <c r="E173" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.55573561972645724</v>
       </c>
       <c r="F173" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.11484231733345746</v>
       </c>
       <c r="H173">
@@ -31469,7 +31843,7 @@
         <v>2426.16</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>152.51431073901907</v>
       </c>
     </row>
@@ -31484,11 +31858,11 @@
         <v>171.87</v>
       </c>
       <c r="E174" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.86447496874937668</v>
       </c>
       <c r="F174" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15395041955624114</v>
       </c>
       <c r="H174">
@@ -31499,7 +31873,7 @@
         <v>9132.59</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>585.46427895835325</v>
       </c>
     </row>
@@ -31514,11 +31888,11 @@
         <v>315.73</v>
       </c>
       <c r="E175" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.36089945693730596</v>
       </c>
       <c r="F175" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.22288072567936862</v>
       </c>
       <c r="H175">
@@ -31529,7 +31903,7 @@
         <v>2026.37</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>126.70489085475762</v>
       </c>
     </row>
@@ -31544,11 +31918,11 @@
         <v>207.4</v>
       </c>
       <c r="E176" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.56119791285730436</v>
       </c>
       <c r="F176" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.17097456648071441</v>
       </c>
       <c r="H176">
@@ -31559,7 +31933,7 @@
         <v>3318.21</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>210.1027772033014</v>
       </c>
     </row>
@@ -31571,7 +31945,7 @@
         <v>837.85</v>
       </c>
       <c r="E177" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.4730537510721623</v>
       </c>
       <c r="F177" s="20"/>
@@ -31579,14 +31953,14 @@
         <v>63057.22</v>
       </c>
       <c r="I177" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>40.381215687057725</v>
       </c>
       <c r="J177">
         <v>14503.13</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>932.17260549283753</v>
       </c>
     </row>
@@ -31601,11 +31975,11 @@
         <v>126.18</v>
       </c>
       <c r="E178" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.42712736540622487</v>
       </c>
       <c r="F178" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.13205812366603059</v>
       </c>
       <c r="H178">
@@ -31616,7 +31990,7 @@
         <v>1197.94</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>73.223568873920883</v>
       </c>
     </row>
@@ -31631,25 +32005,25 @@
         <v>96.23</v>
       </c>
       <c r="E179" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.25771003161632217</v>
       </c>
       <c r="F179" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1177076254845509</v>
       </c>
       <c r="H179">
         <v>5539.96</v>
       </c>
       <c r="I179" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.92227993590820134</v>
       </c>
       <c r="J179">
         <v>4341.49</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>276.16311682952283</v>
       </c>
     </row>
@@ -31661,7 +32035,7 @@
         <v>913.36</v>
       </c>
       <c r="E180" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.50923425583622017</v>
       </c>
       <c r="F180" s="20"/>
@@ -31669,14 +32043,14 @@
         <v>22370.91</v>
       </c>
       <c r="I180" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12.468924798351404</v>
       </c>
       <c r="J180">
         <v>6079.22</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>388.34652115548812</v>
       </c>
     </row>
@@ -31691,11 +32065,11 @@
         <v>399.02</v>
       </c>
       <c r="E181" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.56652604440248155</v>
       </c>
       <c r="F181" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.26278900593096938</v>
       </c>
       <c r="H181">
@@ -31706,7 +32080,7 @@
         <v>3684.54</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>233.75210506593302</v>
       </c>
     </row>
@@ -31718,7 +32092,7 @@
         <v>730.87</v>
       </c>
       <c r="E182" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.42179444237584524</v>
       </c>
       <c r="F182" s="20"/>
@@ -31726,14 +32100,14 @@
         <v>55634.92</v>
       </c>
       <c r="I182" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>35.289247487846616</v>
       </c>
       <c r="J182">
         <v>4901.49</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>312.31528455554502</v>
       </c>
     </row>
@@ -31748,11 +32122,11 @@
         <v>192.74</v>
       </c>
       <c r="E183" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.34287868109071318</v>
       </c>
       <c r="F183" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.16395024917385323</v>
       </c>
       <c r="H183">
@@ -31763,7 +32137,7 @@
         <v>5621.29</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>358.78373157195716</v>
       </c>
     </row>
@@ -31778,11 +32152,11 @@
         <v>175.26</v>
       </c>
       <c r="E184" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.40611670279327372</v>
       </c>
       <c r="F184" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15557473303988775</v>
       </c>
       <c r="H184">
@@ -31793,7 +32167,7 @@
         <v>2302.17</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>144.50983345982357</v>
       </c>
     </row>
@@ -31805,7 +32179,7 @@
         <v>1416.03</v>
       </c>
       <c r="E185" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.75008784251015648</v>
       </c>
       <c r="F185" s="20"/>
@@ -31817,7 +32191,7 @@
         <v>1214.53</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>74.294576842804275</v>
       </c>
     </row>
@@ -31829,7 +32203,7 @@
         <v>361.79</v>
       </c>
       <c r="E186" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.24495030652207159</v>
       </c>
       <c r="F186" s="20"/>
@@ -31841,7 +32215,7 @@
         <v>2444.62</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>153.70604112513044</v>
       </c>
     </row>
@@ -31856,11 +32230,11 @@
         <v>225.39</v>
       </c>
       <c r="E187" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19569383864039844</v>
       </c>
       <c r="F187" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.17959444836000718</v>
       </c>
       <c r="H187">
@@ -31871,7 +32245,7 @@
         <v>2119.0100000000002</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>132.68549231571959</v>
       </c>
     </row>
@@ -31886,11 +32260,11 @@
         <v>172.13</v>
       </c>
       <c r="E188" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.47166901184864068</v>
       </c>
       <c r="F188" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15407499817150608</v>
       </c>
       <c r="H188">
@@ -31901,7 +32275,7 @@
         <v>1456.06</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89.887135897922406</v>
       </c>
     </row>
@@ -31913,7 +32287,7 @@
         <v>535.62</v>
       </c>
       <c r="E189" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3282406937970837</v>
       </c>
       <c r="F189" s="20"/>
@@ -31925,7 +32299,7 @@
         <v>2660.97</v>
       </c>
       <c r="K189" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>167.67304378142489</v>
       </c>
     </row>
@@ -31940,25 +32314,25 @@
         <v>182.61</v>
       </c>
       <c r="E190" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.33747867726749864</v>
       </c>
       <c r="F190" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15909647466372334</v>
       </c>
       <c r="H190">
         <v>8268.85</v>
       </c>
       <c r="I190" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.7943978911438023</v>
       </c>
       <c r="J190">
         <v>3037.22</v>
       </c>
       <c r="K190" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>191.96278147234605</v>
       </c>
     </row>
@@ -31973,11 +32347,11 @@
         <v>367.74</v>
       </c>
       <c r="E191" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.29831786870748755</v>
       </c>
       <c r="F191" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.24780124021755756</v>
       </c>
       <c r="H191">
@@ -31988,7 +32362,7 @@
         <v>1950.39</v>
       </c>
       <c r="K191" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>121.79981638364484</v>
       </c>
     </row>
@@ -32000,7 +32374,7 @@
         <v>972.04</v>
       </c>
       <c r="E192" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.53735069100447486</v>
       </c>
       <c r="F192" s="20"/>
@@ -32012,7 +32386,7 @@
         <v>2753.93</v>
       </c>
       <c r="K192" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>173.67430362394458</v>
       </c>
     </row>
@@ -32024,7 +32398,7 @@
         <v>512.16</v>
       </c>
       <c r="E193" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.31699986951202486</v>
       </c>
       <c r="F193" s="20"/>
@@ -32032,14 +32406,14 @@
         <v>19952.23</v>
       </c>
       <c r="I193" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.809622204267642</v>
       </c>
       <c r="J193">
         <v>13563.73</v>
       </c>
       <c r="K193" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>871.52734413243536</v>
       </c>
     </row>
@@ -32051,7 +32425,7 @@
         <v>1143.79</v>
       </c>
       <c r="E194" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.61964444935736751</v>
       </c>
       <c r="F194" s="20"/>
@@ -32059,14 +32433,14 @@
         <v>54491.21</v>
       </c>
       <c r="I194" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>34.504620761748271</v>
       </c>
       <c r="J194">
         <v>9311.4699999999993</v>
       </c>
       <c r="K194" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>597.01231424912248</v>
       </c>
     </row>
@@ -32111,43 +32485,43 @@
         <v>49</v>
       </c>
       <c r="B199" s="5">
-        <f t="shared" ref="B199:K199" si="38">AVERAGE(B153:B198)</f>
+        <f t="shared" ref="B199:K199" si="40">AVERAGE(B153:B198)</f>
         <v>804.41809523809513</v>
       </c>
       <c r="C199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>358.48185185185179</v>
       </c>
       <c r="D199" s="5" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.45703490337636538</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.24336521223211952</v>
       </c>
       <c r="G199" s="5" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8562.862857142858</v>
       </c>
       <c r="I199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.496254962166773</v>
       </c>
       <c r="J199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4025.1347619047629</v>
       </c>
       <c r="K199" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>255.7400317784072</v>
       </c>
     </row>
@@ -32156,43 +32530,43 @@
         <v>50</v>
       </c>
       <c r="B200" s="5">
-        <f t="shared" ref="B200:K200" si="39">STDEV(B153:B198)</f>
+        <f t="shared" ref="B200:K200" si="41">STDEV(B153:B198)</f>
         <v>422.51294223639945</v>
       </c>
       <c r="C200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>395.54356461454068</v>
       </c>
       <c r="D200" s="5" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.20244645105893455</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.18952411367936417</v>
       </c>
       <c r="G200" s="5" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16197.582182521503</v>
       </c>
       <c r="I200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.492620143481737</v>
       </c>
       <c r="J200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3504.1163986633837</v>
       </c>
       <c r="K200" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>226.21679245711351</v>
       </c>
     </row>
@@ -32205,39 +32579,39 @@
         <v>52.524047474509167</v>
       </c>
       <c r="C201" s="8">
-        <f t="shared" ref="C201" si="40">+C200*100/C199</f>
+        <f t="shared" ref="C201" si="42">+C200*100/C199</f>
         <v>110.33851855295738</v>
       </c>
       <c r="D201" s="8" t="e">
-        <f t="shared" ref="D201" si="41">+D200*100/D199</f>
+        <f t="shared" ref="D201" si="43">+D200*100/D199</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E201" s="8">
-        <f t="shared" ref="E201" si="42">+E200*100/E199</f>
+        <f t="shared" ref="E201" si="44">+E200*100/E199</f>
         <v>44.295621529855275</v>
       </c>
       <c r="F201" s="8">
-        <f t="shared" ref="F201" si="43">+F200*100/F199</f>
+        <f t="shared" ref="F201" si="45">+F200*100/F199</f>
         <v>77.876419534685922</v>
       </c>
       <c r="G201" s="8" t="e">
-        <f t="shared" ref="G201" si="44">+G200*100/G199</f>
+        <f t="shared" ref="G201" si="46">+G200*100/G199</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H201" s="8">
-        <f t="shared" ref="H201" si="45">+H200*100/H199</f>
+        <f t="shared" ref="H201" si="47">+H200*100/H199</f>
         <v>189.16082684904868</v>
       </c>
       <c r="I201" s="8">
-        <f t="shared" ref="I201" si="46">+I200*100/I199</f>
+        <f t="shared" ref="I201" si="48">+I200*100/I199</f>
         <v>78.354348883737359</v>
       </c>
       <c r="J201" s="8">
-        <f t="shared" ref="J201" si="47">+J200*100/J199</f>
+        <f t="shared" ref="J201" si="49">+J200*100/J199</f>
         <v>87.055877776503948</v>
       </c>
       <c r="K201" s="8">
-        <f t="shared" ref="K201" si="48">+K200*100/K199</f>
+        <f t="shared" ref="K201" si="50">+K200*100/K199</f>
         <v>88.455761455885451</v>
       </c>
     </row>
@@ -32258,11 +32632,11 @@
         <v>127.5</v>
       </c>
       <c r="E203" s="20">
-        <f t="shared" ref="E203:E259" si="49">(B203+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="E203:E259" si="51">(B203+149.43)/300794/2*288.25</f>
         <v>0.35098587405333881</v>
       </c>
       <c r="F203" s="20">
-        <f t="shared" ref="F203:F259" si="50">(C203+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="F203:F259" si="52">(C203+149.43)/300794/2*288.25</f>
         <v>0.13269059971276023</v>
       </c>
       <c r="H203">
@@ -32273,7 +32647,7 @@
         <v>1715.91</v>
       </c>
       <c r="K203" s="22">
-        <f t="shared" ref="K203:K259" si="51">(J203-63.701)/2108.2/2*272.2</f>
+        <f t="shared" ref="K203:K259" si="53">(J203-63.701)/2108.2/2*272.2</f>
         <v>106.66238729722039</v>
       </c>
     </row>
@@ -32288,11 +32662,11 @@
         <v>34.340000000000003</v>
       </c>
       <c r="E204" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.26065200353065554</v>
       </c>
       <c r="F204" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8.805312356629455E-2</v>
       </c>
       <c r="H204">
@@ -32303,7 +32677,7 @@
         <v>3649.96</v>
       </c>
       <c r="K204" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>231.51970870885117</v>
       </c>
     </row>
@@ -32318,11 +32692,11 @@
         <v>386.99</v>
       </c>
       <c r="E205" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.45749579861965328</v>
       </c>
       <c r="F205" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.25702484923236507</v>
       </c>
       <c r="H205">
@@ -32333,7 +32707,7 @@
         <v>2665.49</v>
       </c>
       <c r="K205" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>167.96484342092779</v>
       </c>
     </row>
@@ -32348,11 +32722,11 @@
         <v>274.5</v>
       </c>
       <c r="E206" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.40267641641788071</v>
       </c>
       <c r="F206" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.20312543218947188</v>
       </c>
       <c r="H206">
@@ -32363,7 +32737,7 @@
         <v>629.84</v>
       </c>
       <c r="K206" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>36.548485864718714</v>
       </c>
     </row>
@@ -32378,11 +32752,11 @@
         <v>153</v>
       </c>
       <c r="E207" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.27740303579858644</v>
       </c>
       <c r="F207" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.14490888697912857</v>
       </c>
       <c r="H207">
@@ -32393,7 +32767,7 @@
         <v>2587.85</v>
       </c>
       <c r="K207" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>162.95260359548431</v>
       </c>
     </row>
@@ -32405,7 +32779,7 @@
         <v>690.91</v>
       </c>
       <c r="E208" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.40264766750666564</v>
       </c>
       <c r="F208" s="20"/>
@@ -32417,7 +32791,7 @@
         <v>1438.35</v>
       </c>
       <c r="K208" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>88.743823593586939</v>
       </c>
     </row>
@@ -32432,11 +32806,11 @@
         <v>132.16</v>
       </c>
       <c r="E209" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.20013075393791099</v>
       </c>
       <c r="F209" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.13492343181712402</v>
       </c>
       <c r="H209">
@@ -32447,7 +32821,7 @@
         <v>2823.44</v>
       </c>
       <c r="K209" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>178.1616914429371</v>
       </c>
     </row>
@@ -32462,11 +32836,11 @@
         <v>74.900000000000006</v>
       </c>
       <c r="E210" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.31295106451591453</v>
       </c>
       <c r="F210" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.10748738754762396</v>
       </c>
       <c r="H210">
@@ -32477,7 +32851,7 @@
         <v>1077.8699999999999</v>
       </c>
       <c r="K210" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>65.472156768807508</v>
       </c>
     </row>
@@ -32492,11 +32866,11 @@
         <v>115.03</v>
       </c>
       <c r="E211" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.20584699578449039</v>
       </c>
       <c r="F211" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.126715617665246</v>
       </c>
       <c r="H211">
@@ -32507,7 +32881,7 @@
         <v>781.37</v>
       </c>
       <c r="K211" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>46.330875106726111</v>
       </c>
     </row>
@@ -32522,11 +32896,11 @@
         <v>113.18</v>
       </c>
       <c r="E212" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.55831823025060345</v>
       </c>
       <c r="F212" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.12582919290278397</v>
       </c>
       <c r="H212">
@@ -32537,7 +32911,7 @@
         <v>1091.74</v>
       </c>
       <c r="K212" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>66.367568494450239</v>
       </c>
     </row>
@@ -32552,11 +32926,11 @@
         <v>335.06</v>
       </c>
       <c r="E213" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.26460977030791838</v>
       </c>
       <c r="F213" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.23214266657579608</v>
       </c>
       <c r="H213">
@@ -32567,7 +32941,7 @@
         <v>572.07000000000005</v>
       </c>
       <c r="K213" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>32.819002419125326</v>
       </c>
     </row>
@@ -32579,7 +32953,7 @@
         <v>382.53</v>
       </c>
       <c r="E214" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.25488784683205118</v>
       </c>
       <c r="F214" s="20"/>
@@ -32591,7 +32965,7 @@
         <v>1163.8499999999999</v>
       </c>
       <c r="K214" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>71.022805663599271</v>
       </c>
     </row>
@@ -32603,7 +32977,7 @@
         <v>926.11</v>
       </c>
       <c r="E215" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.51534339946940433</v>
       </c>
       <c r="F215" s="20"/>
@@ -32611,14 +32985,14 @@
         <v>4385.8999999999996</v>
       </c>
       <c r="I215" s="21">
-        <f t="shared" ref="I215:I258" si="52">(H215-4195.6)/220309/2*302.28</f>
+        <f t="shared" ref="I215:I258" si="54">(H215-4195.6)/220309/2*302.28</f>
         <v>0.13055273275263329</v>
       </c>
       <c r="J215">
         <v>1940.69</v>
       </c>
       <c r="K215" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>121.17360919267622</v>
       </c>
     </row>
@@ -32630,7 +33004,7 @@
         <v>1356.7</v>
       </c>
       <c r="E216" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.72165996080373951</v>
       </c>
       <c r="F216" s="20"/>
@@ -32642,7 +33016,7 @@
         <v>1386.36</v>
       </c>
       <c r="K216" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>85.387482164879984</v>
       </c>
     </row>
@@ -32657,11 +33031,11 @@
         <v>75.33</v>
       </c>
       <c r="E217" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.2631531588063592</v>
       </c>
       <c r="F217" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.10769342141133134</v>
       </c>
       <c r="H217">
@@ -32672,7 +33046,7 @@
         <v>2577.77</v>
       </c>
       <c r="K217" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>162.30186457641591</v>
       </c>
     </row>
@@ -32684,7 +33058,7 @@
         <v>690.13</v>
       </c>
       <c r="E218" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.40227393166087089</v>
       </c>
       <c r="F218" s="20"/>
@@ -32696,7 +33070,7 @@
         <v>2309</v>
       </c>
       <c r="K218" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>144.9507607911963</v>
       </c>
     </row>
@@ -32708,7 +33082,7 @@
         <v>693.83</v>
       </c>
       <c r="E219" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.40404678118579496</v>
       </c>
       <c r="F219" s="20"/>
@@ -32720,7 +33094,7 @@
         <v>1321.48</v>
       </c>
       <c r="K219" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>81.198995304050854</v>
       </c>
     </row>
@@ -32750,7 +33124,7 @@
         <v>220.72</v>
       </c>
       <c r="E222" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.17735682477044087</v>
       </c>
       <c r="F222" s="20"/>
@@ -32762,7 +33136,7 @@
         <v>1627.46</v>
       </c>
       <c r="K222" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100.95228151977992</v>
       </c>
     </row>
@@ -32774,7 +33148,7 @@
         <v>305.12</v>
       </c>
       <c r="E223" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.21779695987951889</v>
       </c>
       <c r="F223" s="20"/>
@@ -32786,7 +33160,7 @@
         <v>1595.4</v>
       </c>
       <c r="K223" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>98.882569917465148</v>
       </c>
     </row>
@@ -32801,11 +33175,11 @@
         <v>221.29</v>
       </c>
       <c r="E224" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.31636260198009269</v>
       </c>
       <c r="F224" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.17762993942698327</v>
       </c>
       <c r="H224">
@@ -32816,7 +33190,7 @@
         <v>1532.02</v>
       </c>
       <c r="K224" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>94.790919220187845</v>
       </c>
     </row>
@@ -32828,7 +33202,7 @@
         <v>265.51</v>
       </c>
       <c r="E225" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.1988178869924267</v>
       </c>
       <c r="F225" s="20"/>
@@ -32836,14 +33210,14 @@
         <v>5076.3999999999996</v>
       </c>
       <c r="I225" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.60426088811623613</v>
       </c>
       <c r="J225">
         <v>5333.01</v>
       </c>
       <c r="K225" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>340.17311208613984</v>
       </c>
     </row>
@@ -32858,11 +33232,11 @@
         <v>778.38</v>
       </c>
       <c r="E226" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.19489366061158134</v>
       </c>
       <c r="F226" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.44455878857291031</v>
       </c>
       <c r="H226">
@@ -32873,7 +33247,7 @@
         <v>2369.19</v>
       </c>
       <c r="K226" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>148.83647324732001</v>
       </c>
     </row>
@@ -32888,11 +33262,11 @@
         <v>354.54</v>
       </c>
       <c r="E227" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.37349148004946903</v>
       </c>
       <c r="F227" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.24147647975026099</v>
       </c>
       <c r="H227">
@@ -32903,7 +33277,7 @@
         <v>2218.14</v>
       </c>
       <c r="K227" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>139.08507157764919</v>
       </c>
     </row>
@@ -32918,11 +33292,11 @@
         <v>104.31</v>
       </c>
       <c r="E228" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.17723703764037846</v>
       </c>
       <c r="F228" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.12157914552816879</v>
       </c>
       <c r="H228">
@@ -32933,7 +33307,7 @@
         <v>211.67</v>
       </c>
       <c r="K228" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.5525001897353192</v>
       </c>
     </row>
@@ -32948,11 +33322,11 @@
         <v>132.24</v>
       </c>
       <c r="E229" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.44582374066636971</v>
       </c>
       <c r="F229" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.13496176369874399</v>
       </c>
       <c r="H229">
@@ -32963,7 +33337,7 @@
         <v>1343.4</v>
       </c>
       <c r="K229" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>82.614094440755153</v>
       </c>
     </row>
@@ -32975,7 +33349,7 @@
         <v>928.28</v>
       </c>
       <c r="E230" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.51638315175834626</v>
       </c>
       <c r="F230" s="20"/>
@@ -32987,7 +33361,7 @@
         <v>3439.98</v>
       </c>
       <c r="K230" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>217.96393696044021</v>
       </c>
     </row>
@@ -33002,11 +33376,11 @@
         <v>372.88</v>
       </c>
       <c r="E231" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.2519123345213003</v>
       </c>
       <c r="F231" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.25026406361164116</v>
       </c>
       <c r="H231">
@@ -33017,7 +33391,7 @@
         <v>4172.37</v>
       </c>
       <c r="K231" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>265.2451621762641</v>
       </c>
     </row>
@@ -33032,11 +33406,11 @@
         <v>303.62</v>
       </c>
       <c r="E232" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.4513339486492417</v>
       </c>
       <c r="F232" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.21707823709914428</v>
       </c>
       <c r="H232">
@@ -33047,7 +33421,7 @@
         <v>1599.8</v>
       </c>
       <c r="K232" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>99.166622663883871</v>
       </c>
     </row>
@@ -33062,11 +33436,11 @@
         <v>532.54</v>
       </c>
       <c r="E233" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.25008198717394631</v>
       </c>
       <c r="F233" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.32676491635471455</v>
       </c>
       <c r="H233">
@@ -33077,7 +33451,7 @@
         <v>1442.98</v>
       </c>
       <c r="K233" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>89.042724551750311</v>
       </c>
     </row>
@@ -33092,11 +33466,11 @@
         <v>363.38</v>
       </c>
       <c r="E234" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.46979074964926165</v>
       </c>
       <c r="F234" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.24571215266926866</v>
       </c>
       <c r="H234">
@@ -33107,7 +33481,7 @@
         <v>5398.9</v>
       </c>
       <c r="K234" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>344.42680196376057</v>
       </c>
     </row>
@@ -33119,7 +33493,7 @@
         <v>503.29</v>
       </c>
       <c r="E235" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.31274982213740965</v>
       </c>
       <c r="F235" s="20"/>
@@ -33131,7 +33505,7 @@
         <v>1008.36</v>
       </c>
       <c r="K235" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>60.984768949815013</v>
       </c>
     </row>
@@ -33143,7 +33517,7 @@
         <v>809.79</v>
       </c>
       <c r="E236" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.45960884359395471</v>
       </c>
       <c r="F236" s="20"/>
@@ -33155,7 +33529,7 @@
         <v>2139.19</v>
       </c>
       <c r="K236" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>133.98826150270372</v>
       </c>
     </row>
@@ -33170,11 +33544,11 @@
         <v>494.55</v>
       </c>
       <c r="E237" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.17092665162868939</v>
       </c>
       <c r="F237" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.30856206407042697</v>
       </c>
       <c r="H237">
@@ -33185,7 +33559,7 @@
         <v>2218.14</v>
       </c>
       <c r="K237" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>139.08507157764919</v>
       </c>
     </row>
@@ -33197,7 +33571,7 @@
         <v>630.79</v>
       </c>
       <c r="E238" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.37384125846925143</v>
       </c>
       <c r="F238" s="20"/>
@@ -33209,7 +33583,7 @@
         <v>2661.01</v>
       </c>
       <c r="K238" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>167.67562607911964</v>
       </c>
     </row>
@@ -33224,11 +33598,11 @@
         <v>317.64</v>
       </c>
       <c r="E239" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.44266136043272136</v>
       </c>
       <c r="F239" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.22379589935304561</v>
       </c>
       <c r="H239">
@@ -33239,7 +33613,7 @@
         <v>6774.21</v>
       </c>
       <c r="K239" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>433.21329802675268</v>
       </c>
     </row>
@@ -33254,11 +33628,11 @@
         <v>130.86000000000001</v>
       </c>
       <c r="E240" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.33744513687108119</v>
       </c>
       <c r="F240" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.13430053874079936</v>
       </c>
       <c r="H240">
@@ -33269,7 +33643,7 @@
         <v>2984.94</v>
       </c>
       <c r="K240" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>188.58771838535245</v>
       </c>
     </row>
@@ -33284,11 +33658,11 @@
         <v>189.98</v>
       </c>
       <c r="E241" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.25225252997067765</v>
       </c>
       <c r="F241" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.16262779925796392</v>
       </c>
       <c r="H241">
@@ -33299,7 +33673,7 @@
         <v>4151.6499999999996</v>
       </c>
       <c r="K241" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>263.90753197040129</v>
       </c>
     </row>
@@ -33311,7 +33685,7 @@
         <v>351.22</v>
       </c>
       <c r="E242" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.23988570666303186</v>
       </c>
       <c r="F242" s="20"/>
@@ -33323,7 +33697,7 @@
         <v>517.54999999999995</v>
       </c>
       <c r="K242" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>29.299330661227582</v>
       </c>
     </row>
@@ -33341,7 +33715,7 @@
         <v>2212.5700000000002</v>
       </c>
       <c r="K243" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>138.72548662366</v>
       </c>
     </row>
@@ -33353,7 +33727,7 @@
         <v>662.41</v>
       </c>
       <c r="E244" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.38899193467954812</v>
       </c>
       <c r="F244" s="20"/>
@@ -33365,7 +33739,7 @@
         <v>1397.18</v>
       </c>
       <c r="K244" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>86.085993691300644</v>
       </c>
     </row>
@@ -33410,43 +33784,43 @@
         <v>49</v>
       </c>
       <c r="B249" s="5">
-        <f t="shared" ref="B249:K249" si="53">AVERAGE(B203:B248)</f>
+        <f t="shared" ref="B249:K249" si="55">AVERAGE(B203:B248)</f>
         <v>560.95025641025643</v>
       </c>
       <c r="C249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>254.92499999999998</v>
       </c>
       <c r="D249" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.34037764867360448</v>
       </c>
       <c r="F249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.19374609990558322</v>
       </c>
       <c r="G249" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>691.93925000000002</v>
       </c>
       <c r="I249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.36740681043443468</v>
       </c>
       <c r="J249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2202.0540000000005</v>
       </c>
       <c r="K249" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>138.04660055971922</v>
       </c>
     </row>
@@ -33455,43 +33829,43 @@
         <v>50</v>
       </c>
       <c r="B250" s="5">
-        <f t="shared" ref="B250:K250" si="54">STDEV(B203:B248)</f>
+        <f t="shared" ref="B250:K250" si="56">STDEV(B203:B248)</f>
         <v>261.05651003976703</v>
       </c>
       <c r="C250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>177.88649810678629</v>
       </c>
       <c r="D250" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.12508484048711577</v>
       </c>
       <c r="F250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8.5234052340274646E-2</v>
       </c>
       <c r="G250" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1016.2019302294144</v>
       </c>
       <c r="I250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.33496224896097421</v>
       </c>
       <c r="J250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1420.9339015912317</v>
       </c>
       <c r="K250" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>91.73185846056667</v>
       </c>
     </row>
@@ -33504,39 +33878,39 @@
         <v>46.538263786591585</v>
       </c>
       <c r="C251" s="8">
-        <f t="shared" ref="C251" si="55">+C250*100/C249</f>
+        <f t="shared" ref="C251" si="57">+C250*100/C249</f>
         <v>69.779934532425727</v>
       </c>
       <c r="D251" s="8" t="e">
-        <f t="shared" ref="D251" si="56">+D250*100/D249</f>
+        <f t="shared" ref="D251" si="58">+D250*100/D249</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E251" s="8">
-        <f t="shared" ref="E251" si="57">+E250*100/E249</f>
+        <f t="shared" ref="E251" si="59">+E250*100/E249</f>
         <v>36.748840875583561</v>
       </c>
       <c r="F251" s="8">
-        <f t="shared" ref="F251" si="58">+F250*100/F249</f>
+        <f t="shared" ref="F251" si="60">+F250*100/F249</f>
         <v>43.992654500818901</v>
       </c>
       <c r="G251" s="8" t="e">
-        <f t="shared" ref="G251" si="59">+G250*100/G249</f>
+        <f t="shared" ref="G251" si="61">+G250*100/G249</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H251" s="8">
-        <f t="shared" ref="H251" si="60">+H250*100/H249</f>
+        <f t="shared" ref="H251" si="62">+H250*100/H249</f>
         <v>146.86288286571607</v>
       </c>
       <c r="I251" s="8">
-        <f t="shared" ref="I251" si="61">+I250*100/I249</f>
+        <f t="shared" ref="I251" si="63">+I250*100/I249</f>
         <v>91.169308637720448</v>
       </c>
       <c r="J251" s="8">
-        <f t="shared" ref="J251" si="62">+J250*100/J249</f>
+        <f t="shared" ref="J251" si="64">+J250*100/J249</f>
         <v>64.527659248648362</v>
       </c>
       <c r="K251" s="8">
-        <f t="shared" ref="K251" si="63">+K250*100/K249</f>
+        <f t="shared" ref="K251" si="65">+K250*100/K249</f>
         <v>66.449922047072278</v>
       </c>
     </row>
@@ -33554,7 +33928,7 @@
         <v>693.33</v>
       </c>
       <c r="E253" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.40380720692567007</v>
       </c>
       <c r="F253" s="20"/>
@@ -33566,7 +33940,7 @@
         <v>2170.91</v>
       </c>
       <c r="K253" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>136.03602357461341</v>
       </c>
     </row>
@@ -33581,11 +33955,11 @@
         <v>258.92</v>
       </c>
       <c r="E254" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.52012530170149673</v>
       </c>
       <c r="F254" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.19566029824398093</v>
       </c>
       <c r="H254">
@@ -33596,7 +33970,7 @@
         <v>1751.74</v>
       </c>
       <c r="K254" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>108.97548045726212</v>
       </c>
     </row>
@@ -33609,7 +33983,7 @@
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.15931209149783573</v>
       </c>
       <c r="H255">
@@ -33620,7 +33994,7 @@
         <v>3387.24</v>
       </c>
       <c r="K255" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>214.5591774499573</v>
       </c>
     </row>
@@ -33635,11 +34009,11 @@
         <v>716.32</v>
       </c>
       <c r="E256" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.34303680010239568</v>
       </c>
       <c r="F256" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.41482283140621157</v>
       </c>
       <c r="H256">
@@ -33650,7 +34024,7 @@
         <v>1985.36</v>
       </c>
       <c r="K256" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>124.05739014325017</v>
       </c>
     </row>
@@ -33665,11 +34039,11 @@
         <v>216.27</v>
       </c>
       <c r="E257" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.44789845375905107</v>
       </c>
       <c r="F257" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.17522461385532959</v>
       </c>
       <c r="H257">
@@ -33680,7 +34054,7 @@
         <v>2416.86</v>
       </c>
       <c r="K257" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>151.91392652499763</v>
       </c>
     </row>
@@ -33692,7 +34066,7 @@
         <v>603.54999999999995</v>
       </c>
       <c r="E258" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.36078925277764851</v>
       </c>
       <c r="F258" s="20"/>
@@ -33700,14 +34074,14 @@
         <v>4942.9799999999996</v>
       </c>
       <c r="I258" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.51272990753895609</v>
       </c>
       <c r="J258">
         <v>3140.13</v>
       </c>
       <c r="K258" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>198.60638786642636</v>
       </c>
     </row>
@@ -33722,11 +34096,11 @@
         <v>283.13</v>
       </c>
       <c r="E259" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.45521026017806204</v>
       </c>
       <c r="F259" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.20726048391922713</v>
       </c>
       <c r="H259">
@@ -33737,7 +34111,7 @@
         <v>4824.51</v>
       </c>
       <c r="K259" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>307.34565264206435</v>
       </c>
     </row>
@@ -33752,11 +34126,11 @@
         <v>134.4</v>
       </c>
       <c r="E260" s="20">
-        <f t="shared" ref="E260:E294" si="64">(B260+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="E260:E294" si="66">(B260+149.43)/300794/2*288.25</f>
         <v>0.17811387943243548</v>
       </c>
       <c r="F260" s="20">
-        <f t="shared" ref="F260:F294" si="65">(C260+149.43)/300794/2*288.25</f>
+        <f t="shared" ref="F260:F294" si="67">(C260+149.43)/300794/2*288.25</f>
         <v>0.13599672450248343</v>
       </c>
       <c r="H260">
@@ -33767,7 +34141,7 @@
         <v>3008.13</v>
       </c>
       <c r="K260" s="22">
-        <f t="shared" ref="K260:K294" si="66">(J260-63.701)/2108.2/2*272.2</f>
+        <f t="shared" ref="K260:K294" si="68">(J260-63.701)/2108.2/2*272.2</f>
         <v>190.08480547386398</v>
       </c>
     </row>
@@ -33782,11 +34156,11 @@
         <v>34.42</v>
       </c>
       <c r="E261" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.35433033072468201</v>
       </c>
       <c r="F261" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.8091455447914538E-2</v>
       </c>
       <c r="H261">
@@ -33797,7 +34171,7 @@
         <v>2846.78</v>
       </c>
       <c r="K261" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>179.66846214780384</v>
       </c>
     </row>
@@ -33809,7 +34183,7 @@
         <v>715.76</v>
       </c>
       <c r="E262" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.41455450823487172</v>
       </c>
       <c r="F262" s="20"/>
@@ -33821,7 +34195,7 @@
         <v>1372.88</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>84.517247841760749</v>
       </c>
     </row>
@@ -33836,25 +34210,25 @@
         <v>462.47</v>
       </c>
       <c r="E263" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.38130639241474229</v>
       </c>
       <c r="F263" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.29319097954081536</v>
       </c>
       <c r="H263">
         <v>5612.76</v>
       </c>
       <c r="I263" s="21">
-        <f t="shared" ref="I263:I292" si="67">(H263-4195.6)/220309/2*302.28</f>
+        <f t="shared" ref="I263:I292" si="69">(H263-4195.6)/220309/2*302.28</f>
         <v>0.97222338805949804</v>
       </c>
       <c r="J263">
         <v>5097.46</v>
       </c>
       <c r="K263" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>324.96660653638179</v>
       </c>
     </row>
@@ -33866,7 +34240,7 @@
         <v>938.78</v>
       </c>
       <c r="E264" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.52141421122096854</v>
       </c>
       <c r="F264" s="20"/>
@@ -33878,7 +34252,7 @@
         <v>3909.17</v>
       </c>
       <c r="K264" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>248.25364334503371</v>
       </c>
     </row>
@@ -33890,7 +34264,7 @@
         <v>947.48</v>
       </c>
       <c r="E265" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.52558280334714125</v>
       </c>
       <c r="F265" s="20"/>
@@ -33902,7 +34276,7 @@
         <v>1109.3800000000001</v>
       </c>
       <c r="K265" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>67.506361777819947</v>
       </c>
     </row>
@@ -33917,11 +34291,11 @@
         <v>222.68</v>
       </c>
       <c r="E266" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.29597004095826385</v>
       </c>
       <c r="F266" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.17829595587013039</v>
       </c>
       <c r="H266">
@@ -33932,7 +34306,7 @@
         <v>1621.32</v>
       </c>
       <c r="K266" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>100.55589882364102</v>
       </c>
     </row>
@@ -33947,11 +34321,11 @@
         <v>118.14</v>
       </c>
       <c r="E267" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.77091642868541266</v>
       </c>
       <c r="F267" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.12820576956322266</v>
       </c>
       <c r="H267">
@@ -33962,7 +34336,7 @@
         <v>1923.08</v>
       </c>
       <c r="K267" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>120.03675263257755</v>
       </c>
     </row>
@@ -33977,25 +34351,25 @@
         <v>454.28</v>
       </c>
       <c r="E268" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.21281860675412409</v>
       </c>
       <c r="F268" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.28926675315996997</v>
       </c>
       <c r="H268">
         <v>5330.84</v>
       </c>
       <c r="I268" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.77881599753074071</v>
       </c>
       <c r="J268">
         <v>938.54</v>
       </c>
       <c r="K268" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>56.477368323688452</v>
       </c>
     </row>
@@ -34007,7 +34381,7 @@
         <v>700.11</v>
       </c>
       <c r="E269" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.40705583389296329</v>
       </c>
       <c r="F269" s="20"/>
@@ -34019,7 +34393,7 @@
         <v>5766.98</v>
       </c>
       <c r="K269" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>368.18910535053601</v>
       </c>
     </row>
@@ -34052,11 +34426,11 @@
         <v>250</v>
       </c>
       <c r="E272" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.31131716806186294</v>
       </c>
       <c r="F272" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.19138629344335326</v>
       </c>
       <c r="H272">
@@ -34067,7 +34441,7 @@
         <v>3474.13</v>
       </c>
       <c r="K272" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>220.16857361730388</v>
       </c>
     </row>
@@ -34079,7 +34453,7 @@
         <v>267.77</v>
       </c>
       <c r="E273" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.19990076264819109</v>
       </c>
       <c r="F273" s="20"/>
@@ -34091,7 +34465,7 @@
         <v>1686.19</v>
       </c>
       <c r="K273" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>104.7437401100465</v>
       </c>
     </row>
@@ -34106,25 +34480,25 @@
         <v>286.44</v>
       </c>
       <c r="E274" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.32656846546141211</v>
       </c>
       <c r="F274" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.20884646552125377</v>
       </c>
       <c r="H274">
         <v>13011.67</v>
       </c>
       <c r="I274" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6.0481451951577094</v>
       </c>
       <c r="J274">
         <v>3086.53</v>
       </c>
       <c r="K274" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>195.14610895550709</v>
       </c>
     </row>
@@ -34136,7 +34510,7 @@
         <v>528.75</v>
       </c>
       <c r="E275" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.32494894346296804</v>
       </c>
       <c r="F275" s="20"/>
@@ -34144,14 +34518,14 @@
         <v>1000066.28</v>
       </c>
       <c r="I275" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>683.20356669586806</v>
       </c>
       <c r="J275">
         <v>49877.57</v>
       </c>
       <c r="K275" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3215.8559770894603</v>
       </c>
     </row>
@@ -34166,25 +34540,25 @@
         <v>308.69</v>
       </c>
       <c r="E276" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.23572190602206158</v>
       </c>
       <c r="F276" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.21950752009681046</v>
       </c>
       <c r="H276">
         <v>11804.16</v>
       </c>
       <c r="I276" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5.2197493447839163</v>
       </c>
       <c r="J276">
         <v>11740.26</v>
       </c>
       <c r="K276" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>753.8087846978467</v>
       </c>
     </row>
@@ -34199,11 +34573,11 @@
         <v>383.2</v>
       </c>
       <c r="E277" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.53943498706756121</v>
       </c>
       <c r="F277" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.25520887634061851</v>
       </c>
       <c r="H277">
@@ -34214,7 +34588,7 @@
         <v>2394.44</v>
       </c>
       <c r="K277" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>150.46654866710941</v>
       </c>
     </row>
@@ -34229,11 +34603,11 @@
         <v>872.48</v>
       </c>
       <c r="E278" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.35707585174571305</v>
       </c>
       <c r="F278" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.48964666432841081</v>
       </c>
       <c r="H278">
@@ -34244,7 +34618,7 @@
         <v>3374.71</v>
       </c>
       <c r="K278" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>213.75027269708758</v>
       </c>
     </row>
@@ -34259,25 +34633,25 @@
         <v>187.31</v>
       </c>
       <c r="E279" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.64318980764243971</v>
       </c>
       <c r="F279" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.16134847270889713</v>
       </c>
       <c r="H279">
         <v>9528.66</v>
       </c>
       <c r="I279" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.6586734468405733</v>
       </c>
       <c r="J279">
         <v>3450.6</v>
       </c>
       <c r="K279" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>218.64953699838725</v>
       </c>
     </row>
@@ -34292,11 +34666,11 @@
         <v>94</v>
       </c>
       <c r="E280" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.15097969873069278</v>
       </c>
       <c r="F280" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.11663912428439398</v>
       </c>
       <c r="H280">
@@ -34307,7 +34681,7 @@
         <v>2344.08</v>
       </c>
       <c r="K280" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>147.21543586946211</v>
       </c>
     </row>
@@ -34322,11 +34696,11 @@
         <v>758.21</v>
       </c>
       <c r="E281" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.57059401533940168</v>
       </c>
       <c r="F281" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.43489436291947314</v>
       </c>
       <c r="H281">
@@ -34337,7 +34711,7 @@
         <v>2038.96</v>
       </c>
       <c r="K281" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>127.51766905416945</v>
       </c>
     </row>
@@ -34349,7 +34723,7 @@
         <v>515.23</v>
       </c>
       <c r="E282" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.31847085546919157</v>
       </c>
       <c r="F282" s="20"/>
@@ -34361,7 +34735,7 @@
         <v>2792.56</v>
       </c>
       <c r="K282" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>176.16815762261646</v>
       </c>
     </row>
@@ -34376,11 +34750,11 @@
         <v>415.31</v>
       </c>
       <c r="E283" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.18804662825721258</v>
       </c>
       <c r="F283" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.2705943353258376</v>
       </c>
       <c r="H283">
@@ -34391,7 +34765,7 @@
         <v>1373.77</v>
       </c>
       <c r="K283" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>84.57470396546816</v>
       </c>
     </row>
@@ -34406,11 +34780,11 @@
         <v>243.19</v>
       </c>
       <c r="E284" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.27778156312958369</v>
       </c>
       <c r="F284" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.18812329202045253</v>
       </c>
       <c r="H284">
@@ -34421,7 +34795,7 @@
         <v>1486.88</v>
       </c>
       <c r="K284" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>91.876796271700982</v>
       </c>
     </row>
@@ -34436,25 +34810,25 @@
         <v>439.47</v>
       </c>
       <c r="E285" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.39759265061803095</v>
       </c>
       <c r="F285" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.28217056357507136</v>
       </c>
       <c r="H285">
         <v>13445.54</v>
       </c>
       <c r="I285" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6.3457958213236862</v>
       </c>
       <c r="J285">
         <v>2114.77</v>
       </c>
       <c r="K285" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>132.4117687600797</v>
       </c>
     </row>
@@ -34469,11 +34843,11 @@
         <v>412.94</v>
       </c>
       <c r="E286" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.52386266015944472</v>
       </c>
       <c r="F286" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.26945875333284575</v>
       </c>
       <c r="H286">
@@ -34484,7 +34858,7 @@
         <v>3161.1</v>
       </c>
       <c r="K286" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>199.96015743288112</v>
       </c>
     </row>
@@ -34499,11 +34873,11 @@
         <v>428.34</v>
       </c>
       <c r="E287" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.28305698833753334</v>
       </c>
       <c r="F287" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.27683764054469168</v>
       </c>
       <c r="H287">
@@ -34514,7 +34888,7 @@
         <v>1694.79</v>
       </c>
       <c r="K287" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>105.2989341144104</v>
       </c>
     </row>
@@ -34529,11 +34903,11 @@
         <v>79.290000000000006</v>
       </c>
       <c r="E288" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.5010168587139372</v>
       </c>
       <c r="F288" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.10959084955152033</v>
       </c>
       <c r="H288">
@@ -34544,7 +34918,7 @@
         <v>2917.83</v>
       </c>
       <c r="K288" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>184.25526842804288</v>
       </c>
     </row>
@@ -34559,11 +34933,11 @@
         <v>256.23</v>
       </c>
       <c r="E289" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.38772698258608884</v>
       </c>
       <c r="F289" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.19437138872450915</v>
       </c>
       <c r="H289">
@@ -34574,7 +34948,7 @@
         <v>4228.32</v>
       </c>
       <c r="K289" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>268.85715107674793</v>
       </c>
     </row>
@@ -34586,7 +34960,7 @@
         <v>1011.82</v>
       </c>
       <c r="E290" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.55641121914000946</v>
       </c>
       <c r="F290" s="20"/>
@@ -34598,7 +34972,7 @@
         <v>5245.49</v>
       </c>
       <c r="K290" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>334.5230447301015</v>
       </c>
     </row>
@@ -34613,11 +34987,11 @@
         <v>446.82</v>
       </c>
       <c r="E291" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.55444191872178306</v>
       </c>
       <c r="F291" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.28569230519890687</v>
       </c>
       <c r="H291">
@@ -34628,7 +35002,7 @@
         <v>2200.23</v>
       </c>
       <c r="K291" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>137.92884778484017</v>
       </c>
     </row>
@@ -34640,7 +35014,7 @@
         <v>512</v>
       </c>
       <c r="E292" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.31692320574878491</v>
       </c>
       <c r="F292" s="20"/>
@@ -34648,14 +35022,14 @@
         <v>7185.58</v>
       </c>
       <c r="I292" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>2.0512352069139248</v>
       </c>
       <c r="J292">
         <v>130.79</v>
       </c>
       <c r="K292" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.3310942510198274</v>
       </c>
     </row>
@@ -34667,7 +35041,7 @@
         <v>506.68</v>
       </c>
       <c r="E293" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.31437413562105626</v>
       </c>
       <c r="F293" s="20"/>
@@ -34679,7 +35053,7 @@
         <v>6428.32</v>
       </c>
       <c r="K293" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>410.88352428612086</v>
       </c>
     </row>
@@ -34694,11 +35068,11 @@
         <v>246.05</v>
       </c>
       <c r="E294" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.46551674484863392</v>
       </c>
       <c r="F294" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.1894936567883668</v>
       </c>
       <c r="H294">
@@ -34709,7 +35083,7 @@
         <v>3757</v>
       </c>
       <c r="K294" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>238.42993733991082</v>
       </c>
     </row>
@@ -34738,43 +35112,43 @@
         <v>49</v>
       </c>
       <c r="B299" s="5">
-        <f t="shared" ref="B299:K299" si="68">AVERAGE(B253:B298)</f>
+        <f t="shared" ref="B299:K299" si="70">AVERAGE(B253:B298)</f>
         <v>671.35743589743572</v>
       </c>
       <c r="C299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>328.28785714285715</v>
       </c>
       <c r="D299" s="5" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.39327908534983397</v>
       </c>
       <c r="F299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.22889780434687626</v>
       </c>
       <c r="G299" s="5" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>27792.96850000001</v>
       </c>
       <c r="I299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>78.754548333779681</v>
       </c>
       <c r="J299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>4206.7447500000007</v>
       </c>
       <c r="K299" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>267.4643081183001</v>
       </c>
     </row>
@@ -34783,43 +35157,43 @@
         <v>50</v>
       </c>
       <c r="B300" s="5">
-        <f t="shared" ref="B300:K300" si="69">STDEV(B253:B298)</f>
+        <f t="shared" ref="B300:K300" si="71">STDEV(B253:B298)</f>
         <v>287.05456052738168</v>
       </c>
       <c r="C300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>202.17199903853677</v>
       </c>
       <c r="D300" s="5" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.13754176790763406</v>
       </c>
       <c r="F300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.6870414175246458E-2</v>
       </c>
       <c r="G300" s="5" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>157711.99074517796</v>
       </c>
       <c r="I300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>226.67986971902241</v>
       </c>
       <c r="J300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>7660.202754010742</v>
       </c>
       <c r="K300" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>494.52309781845281</v>
       </c>
     </row>
@@ -34832,39 +35206,39 @@
         <v>42.757336878776364</v>
       </c>
       <c r="C301" s="8">
-        <f t="shared" ref="C301" si="70">+C300*100/C299</f>
+        <f t="shared" ref="C301" si="72">+C300*100/C299</f>
         <v>61.58375786362393</v>
       </c>
       <c r="D301" s="8" t="e">
-        <f t="shared" ref="D301" si="71">+D300*100/D299</f>
+        <f t="shared" ref="D301" si="73">+D300*100/D299</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E301" s="8">
-        <f t="shared" ref="E301" si="72">+E300*100/E299</f>
+        <f t="shared" ref="E301" si="74">+E300*100/E299</f>
         <v>34.973069515071309</v>
       </c>
       <c r="F301" s="8">
-        <f t="shared" ref="F301" si="73">+F300*100/F299</f>
+        <f t="shared" ref="F301" si="75">+F300*100/F299</f>
         <v>42.320377188261325</v>
       </c>
       <c r="G301" s="8" t="e">
-        <f t="shared" ref="G301" si="74">+G300*100/G299</f>
+        <f t="shared" ref="G301" si="76">+G300*100/G299</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H301" s="8">
-        <f t="shared" ref="H301" si="75">+H300*100/H299</f>
+        <f t="shared" ref="H301" si="77">+H300*100/H299</f>
         <v>567.45284601455182</v>
       </c>
       <c r="I301" s="8">
-        <f t="shared" ref="I301" si="76">+I300*100/I299</f>
+        <f t="shared" ref="I301" si="78">+I300*100/I299</f>
         <v>287.83082947578032</v>
       </c>
       <c r="J301" s="8">
-        <f t="shared" ref="J301" si="77">+J300*100/J299</f>
+        <f t="shared" ref="J301" si="79">+J300*100/J299</f>
         <v>182.09335743535999</v>
       </c>
       <c r="K301" s="8">
-        <f t="shared" ref="K301" si="78">+K300*100/K299</f>
+        <f t="shared" ref="K301" si="80">+K300*100/K299</f>
         <v>184.89311762664201</v>
       </c>
     </row>
